--- a/iS3_DataManager/iS3_DataManager/Standard/Environment.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Environment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9F6F6A-5808-487E-AA42-27CAA60C2A58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA1EB0-8FDA-49D7-814C-7DE3CE010FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$2:$I$258</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,24 +24,774 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="377">
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>ACHE</t>
+  </si>
+  <si>
+    <t>施工实际进度信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>PROJ_ID</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工实际进度信息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROG_NAME</t>
+  </si>
+  <si>
+    <t>标段号</t>
+  </si>
+  <si>
+    <t>PROG_LORR</t>
+  </si>
+  <si>
+    <t>左右幅</t>
+  </si>
+  <si>
+    <t>PROG_DATE</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>记录时间</t>
+  </si>
+  <si>
+    <t>PROG_END</t>
+  </si>
+  <si>
+    <t>终点桩号</t>
+  </si>
+  <si>
+    <t>PROG_SGJD</t>
+  </si>
+  <si>
+    <t>施工面进度</t>
+  </si>
+  <si>
+    <t>PROG_CQJD</t>
+  </si>
+  <si>
+    <t>超前支护进度</t>
+  </si>
+  <si>
+    <t>PROG_CCJD</t>
+  </si>
+  <si>
+    <t>初衬进度</t>
+  </si>
+  <si>
+    <t>PROG_ECJD</t>
+  </si>
+  <si>
+    <t>二衬进度</t>
+  </si>
+  <si>
     <t>FILE_FSET</t>
   </si>
   <si>
+    <t>关联文件（现场日志表）</t>
+  </si>
+  <si>
+    <t>PROG_YGJD</t>
+  </si>
+  <si>
+    <t>仰拱进度</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>超前钻探</t>
+  </si>
+  <si>
     <t>LOCA_ID</t>
   </si>
   <si>
+    <t>位置ID</t>
+  </si>
+  <si>
     <t>HDPH_ID</t>
   </si>
   <si>
+    <t>钻孔ID</t>
+  </si>
+  <si>
+    <t>GCS_CHAI</t>
+  </si>
+  <si>
+    <t>掌子面桩号</t>
+  </si>
+  <si>
+    <t>DETL_TOP</t>
+  </si>
+  <si>
     <t>decimal</t>
   </si>
   <si>
+    <t>钻探长度</t>
+  </si>
+  <si>
+    <t>DETL_GEO1</t>
+  </si>
+  <si>
+    <t>地层年代</t>
+  </si>
+  <si>
+    <t>DETL_GEO2</t>
+  </si>
+  <si>
+    <t>地层岩性</t>
+  </si>
+  <si>
+    <t>DETL_RQD</t>
+  </si>
+  <si>
+    <t>RQD值</t>
+  </si>
+  <si>
+    <t>DETL_BEAR</t>
+  </si>
+  <si>
+    <t>承载力</t>
+  </si>
+  <si>
+    <t>DETL_FRIC</t>
+  </si>
+  <si>
+    <t>摩阻力</t>
+  </si>
+  <si>
+    <t>DETL_BLOW</t>
+  </si>
+  <si>
+    <t>标贯N</t>
+  </si>
+  <si>
+    <t>DETL_DBLOW</t>
+  </si>
+  <si>
+    <t>动探Nd</t>
+  </si>
+  <si>
+    <t>DETL_DESC</t>
+  </si>
+  <si>
+    <t>细节描述</t>
+  </si>
+  <si>
+    <t>DETL_REM</t>
+  </si>
+  <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>关联文件（现场日志表</t>
+  </si>
+  <si>
+    <t>ARCQ</t>
+  </si>
+  <si>
+    <t>锚杆施工质量</t>
+  </si>
+  <si>
+    <t>ARCQ_NO</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>ARCQ_ID</t>
+  </si>
+  <si>
+    <t>ARCQ_CHAI</t>
+  </si>
+  <si>
+    <t>锚杆类型</t>
+  </si>
+  <si>
+    <t>ARCQ_INTE</t>
+  </si>
+  <si>
+    <t>桩号区间</t>
+  </si>
+  <si>
+    <t>ARCQ_GESC</t>
+  </si>
+  <si>
+    <t>锚杆设计数量</t>
+  </si>
+  <si>
+    <t>ARCQ_WATE</t>
+  </si>
+  <si>
+    <t>锚杆实际数量</t>
+  </si>
+  <si>
+    <t>ARCQ_SURR</t>
+  </si>
+  <si>
+    <t>锚杆设计长度</t>
+  </si>
+  <si>
+    <t>ARCQ_RESU</t>
+  </si>
+  <si>
+    <t>锚杆实际长度</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>超前支护方案</t>
+  </si>
+  <si>
+    <t>ASP_NO</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP_ID</t>
+  </si>
+  <si>
+    <t>ASP_INTE</t>
+  </si>
+  <si>
+    <t>ASP_SUPP</t>
+  </si>
+  <si>
+    <t>ASP_SRL</t>
+  </si>
+  <si>
+    <t>预报围岩级别</t>
+  </si>
+  <si>
+    <t>CHAG</t>
+  </si>
+  <si>
+    <t>围岩变更</t>
+  </si>
+  <si>
+    <t>CHAG_NUMB</t>
+  </si>
+  <si>
+    <t>处理卡编号</t>
+  </si>
+  <si>
+    <t>CHAG_NAME</t>
+  </si>
+  <si>
+    <t>工程名称</t>
+  </si>
+  <si>
+    <t>CHAG_CHAI</t>
+  </si>
+  <si>
+    <t>里程桩号</t>
+  </si>
+  <si>
+    <t>CHAG_TYPE1</t>
+  </si>
+  <si>
+    <t>变更类型</t>
+  </si>
+  <si>
+    <t>CHAG_PRIM</t>
+  </si>
+  <si>
+    <t>原衬砌类别</t>
+  </si>
+  <si>
+    <t>CHAG_PRES</t>
+  </si>
+  <si>
+    <t>变更后衬砌类别</t>
+  </si>
+  <si>
+    <t>CHAG_REAS</t>
+  </si>
+  <si>
+    <t>变更原因</t>
+  </si>
+  <si>
+    <t>CHAG_MANA</t>
+  </si>
+  <si>
+    <t>处理意见</t>
+  </si>
+  <si>
+    <t>CHAG_DATE1</t>
+  </si>
+  <si>
+    <t>处理卡签发日期</t>
+  </si>
+  <si>
+    <t>CHAG_DATE2</t>
+  </si>
+  <si>
+    <t>变更令签发日期</t>
+  </si>
+  <si>
+    <t>EPCD</t>
+  </si>
+  <si>
+    <t>CD法开挖参数</t>
+  </si>
+  <si>
+    <t>EP_CHAI</t>
+  </si>
+  <si>
+    <t>EP_SSS</t>
+  </si>
+  <si>
+    <t>Ⅰ台阶步长</t>
+  </si>
+  <si>
+    <t>EP_XSS</t>
+  </si>
+  <si>
+    <t>Ⅱ台阶步长</t>
+  </si>
+  <si>
+    <t>EP_PSS</t>
+  </si>
+  <si>
+    <t>Ⅲ台阶步长</t>
+  </si>
+  <si>
+    <t>EP_EH</t>
+  </si>
+  <si>
+    <t>开挖高度</t>
+  </si>
+  <si>
+    <t>EP_EW</t>
+  </si>
+  <si>
+    <t>开挖宽度</t>
+  </si>
+  <si>
+    <t>EP_CYCF</t>
+  </si>
+  <si>
+    <t>循环进尺</t>
+  </si>
+  <si>
+    <t>EPEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二台阶开挖参数</t>
+  </si>
+  <si>
+    <t>EP_SS</t>
+  </si>
+  <si>
+    <t>台阶步长</t>
+  </si>
+  <si>
+    <t>EPQM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全断面开挖参数</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>三台阶开挖参数</t>
+  </si>
+  <si>
+    <t>上台阶步长</t>
+  </si>
+  <si>
+    <t>中台阶步长</t>
+  </si>
+  <si>
+    <t>EPY</t>
+  </si>
+  <si>
+    <t>预留核心土法开挖参数</t>
+  </si>
+  <si>
+    <t>EP_RCSW</t>
+  </si>
+  <si>
+    <t>预留核心土宽度</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>ES开挖方案</t>
+  </si>
+  <si>
+    <t>ES_NO</t>
+  </si>
+  <si>
+    <t>ES_ID</t>
+  </si>
+  <si>
+    <t>ES_CHAI</t>
+  </si>
+  <si>
+    <t>ES_INTE</t>
+  </si>
+  <si>
+    <t>ES_EXCA</t>
+  </si>
+  <si>
+    <t>开挖方法</t>
+  </si>
+  <si>
+    <t>ES_SURR</t>
+  </si>
+  <si>
+    <t>设计围岩级别</t>
+  </si>
+  <si>
+    <t>ES_RESU</t>
+  </si>
+  <si>
+    <t>GCS</t>
+  </si>
+  <si>
+    <t>GCS注浆施工方案</t>
+  </si>
+  <si>
+    <t>GCS_NO</t>
+  </si>
+  <si>
+    <t>GCS_ID</t>
+  </si>
+  <si>
+    <t>GCS_INTE</t>
+  </si>
+  <si>
+    <t>GCS_SUPP</t>
+  </si>
+  <si>
+    <t>注浆施工方案</t>
+  </si>
+  <si>
+    <t>GCS_SURR</t>
+  </si>
+  <si>
+    <t>GCS_RGCSU</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>GQ注浆施工质量</t>
+  </si>
+  <si>
+    <t>GQ_NO</t>
+  </si>
+  <si>
+    <t>GQ_ID</t>
+  </si>
+  <si>
+    <t>GQ_CHAI</t>
+  </si>
+  <si>
+    <t>衬砌类型</t>
+  </si>
+  <si>
+    <t>GQ_INTE</t>
+  </si>
+  <si>
+    <t>GQ_GESC</t>
+  </si>
+  <si>
+    <t>设计注浆半径</t>
+  </si>
+  <si>
+    <t>GQ_WATE</t>
+  </si>
+  <si>
+    <t>实际注浆半径</t>
+  </si>
+  <si>
+    <t>GQ_SURR</t>
+  </si>
+  <si>
+    <t>GQ_RESU</t>
+  </si>
+  <si>
+    <t>ILCQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初衬施工质量</t>
+  </si>
+  <si>
+    <t>ILCQ_NO</t>
+  </si>
+  <si>
+    <t>ILCQ_ID</t>
+  </si>
+  <si>
+    <t>ILCQ_CHAI</t>
+  </si>
+  <si>
+    <t>ILCQ_INTE</t>
+  </si>
+  <si>
+    <t>ILCQ_GESC</t>
+  </si>
+  <si>
+    <t>衬砌设计厚度</t>
+  </si>
+  <si>
+    <t>ILCQ_WATE</t>
+  </si>
+  <si>
+    <t>衬砌实际厚度</t>
+  </si>
+  <si>
+    <t>ILCQ_SURR</t>
+  </si>
+  <si>
+    <t>ILCQ_RESU</t>
+  </si>
+  <si>
+    <t>ISP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISP初期支护方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISP_NO</t>
+  </si>
+  <si>
+    <t>ISP_ID</t>
+  </si>
+  <si>
+    <t>ISP_CHAI</t>
+  </si>
+  <si>
+    <t>ISP_INTE</t>
+  </si>
+  <si>
+    <t>ISP_SUPP</t>
+  </si>
+  <si>
+    <t>初期支护方案</t>
+  </si>
+  <si>
+    <t>ISP_SURR</t>
+  </si>
+  <si>
+    <t>ISP_RESU</t>
+  </si>
+  <si>
+    <t>SCHE</t>
+  </si>
+  <si>
+    <t>施工计划进度信息</t>
+  </si>
+  <si>
+    <t>工程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLCQ</t>
+  </si>
+  <si>
+    <t>二衬施工质量</t>
+  </si>
+  <si>
+    <t>SLCQ_NO</t>
+  </si>
+  <si>
+    <t>SLCQ_ID</t>
+  </si>
+  <si>
+    <t>SLCQ_CHAI</t>
+  </si>
+  <si>
+    <t>SLCQ_INTE</t>
+  </si>
+  <si>
+    <t>SLCQ_GESC</t>
+  </si>
+  <si>
+    <t>SLCQ_WATE</t>
+  </si>
+  <si>
+    <t>SLCQ_SURR</t>
+  </si>
+  <si>
+    <t>SLCQ_RESU</t>
+  </si>
+  <si>
+    <t>SPZL</t>
+  </si>
+  <si>
+    <t>图片资料</t>
+  </si>
+  <si>
+    <t>SPZL_SECTION</t>
+  </si>
+  <si>
+    <t>SPZL_UPLOADER</t>
+  </si>
+  <si>
+    <t>上传者</t>
+  </si>
+  <si>
+    <t>SPZL_DATE</t>
+  </si>
+  <si>
+    <t>视频时间</t>
+  </si>
+  <si>
+    <t>SPZL_ZHQJ</t>
+  </si>
+  <si>
+    <t>SPZL_SPMC</t>
+  </si>
+  <si>
+    <t>视频名称</t>
+  </si>
+  <si>
+    <t>SPZL_DISC</t>
+  </si>
+  <si>
+    <t>视频描述</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>二次支护方案</t>
+  </si>
+  <si>
+    <t>SSP_NO</t>
+  </si>
+  <si>
+    <t>SSP_ID</t>
+  </si>
+  <si>
+    <t>SSP_CHAI</t>
+  </si>
+  <si>
+    <t>SSP_INTE</t>
+  </si>
+  <si>
+    <t>SSP_SUPP</t>
+  </si>
+  <si>
+    <t>SSP_SURR</t>
+  </si>
+  <si>
+    <t>SSP_RSSPU</t>
+  </si>
+  <si>
+    <t>TPQ</t>
+  </si>
+  <si>
+    <t>隧道路面质量</t>
+  </si>
+  <si>
+    <t>TPQ_NO</t>
+  </si>
+  <si>
+    <t>TPQ_ID</t>
+  </si>
+  <si>
+    <t>TPQ_CHAI</t>
+  </si>
+  <si>
+    <t>TPQ_INTE</t>
+  </si>
+  <si>
+    <t>TPQ_GESC</t>
+  </si>
+  <si>
+    <t>TPQ_WATE</t>
+  </si>
+  <si>
+    <t>TPQ_SURR</t>
+  </si>
+  <si>
+    <t>TPQ_RESU</t>
+  </si>
+  <si>
+    <t>TPSI</t>
+  </si>
+  <si>
+    <t>第三方抽检</t>
+  </si>
+  <si>
+    <t>TPSI_SECTION</t>
+  </si>
+  <si>
+    <t>TPSI_CHECKER</t>
+  </si>
+  <si>
+    <t>检测单位</t>
+  </si>
+  <si>
+    <t>TPSI_DATE</t>
+  </si>
+  <si>
+    <t>检测时间</t>
+  </si>
+  <si>
+    <t>TPSI_ZHQJ</t>
+  </si>
+  <si>
+    <t>TPSI_JCWT</t>
+  </si>
+  <si>
+    <t>检测问题</t>
+  </si>
+  <si>
+    <t>TPSI_ZGZRR</t>
+  </si>
+  <si>
+    <t>整改责任人</t>
+  </si>
+  <si>
+    <t>TPSI_ZGJG</t>
+  </si>
+  <si>
+    <t>整改结果</t>
+  </si>
+  <si>
+    <t>TPSI_ZGJD</t>
+  </si>
+  <si>
+    <t>整改进度</t>
+  </si>
+  <si>
+    <t>施工阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>承压水</t>
@@ -390,6 +1143,14 @@
   </si>
   <si>
     <t>水质信息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_CORR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐蚀性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -451,7 +1212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,13 +1227,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -487,8 +1261,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -772,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M83"/>
+  <dimension ref="A2:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U164" sqref="U164"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -785,54 +1561,51 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
@@ -840,1169 +1613,1541 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
         <v>22</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
         <v>24</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
         <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
         <v>28</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
       </c>
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
         <v>40</v>
       </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>4</v>
       </c>
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
       <c r="M18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>5</v>
       </c>
       <c r="M21" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>5</v>
       </c>
       <c r="M22" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>5</v>
       </c>
       <c r="M24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>4</v>
       </c>
+      <c r="K25" t="s">
+        <v>5</v>
+      </c>
       <c r="M25" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>4</v>
       </c>
+      <c r="K26" t="s">
+        <v>5</v>
+      </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
       </c>
       <c r="I27" t="s">
         <v>4</v>
       </c>
+      <c r="K27" t="s">
+        <v>5</v>
+      </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>5</v>
       </c>
       <c r="M28" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>4</v>
       </c>
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K30" t="s">
+        <v>5</v>
       </c>
       <c r="M30" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5</v>
       </c>
       <c r="M31" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K32" t="s">
+        <v>5</v>
       </c>
       <c r="M32" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
       </c>
       <c r="M33" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>5</v>
       </c>
       <c r="M34" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>5</v>
       </c>
       <c r="M35" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>78</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>79</v>
+      </c>
+      <c r="K36" t="s">
+        <v>5</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>5</v>
       </c>
       <c r="M37" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>81</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>283</v>
+      </c>
+      <c r="K38" t="s">
+        <v>5</v>
       </c>
       <c r="M38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K39" t="s">
+        <v>5</v>
       </c>
       <c r="M39" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K40" t="s">
+        <v>5</v>
       </c>
       <c r="M40" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K41" t="s">
+        <v>5</v>
       </c>
       <c r="M41" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>85</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K42" t="s">
+        <v>5</v>
       </c>
       <c r="M42" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>4</v>
+        <v>283</v>
+      </c>
+      <c r="K43" t="s">
+        <v>5</v>
       </c>
       <c r="M43" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>91</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K44" t="s">
+        <v>5</v>
       </c>
       <c r="M44" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K45" t="s">
+        <v>5</v>
       </c>
       <c r="M45" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>95</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>4</v>
+        <v>283</v>
+      </c>
+      <c r="K46" t="s">
+        <v>5</v>
       </c>
       <c r="M46" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>97</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>4</v>
+        <v>283</v>
+      </c>
+      <c r="K47" t="s">
+        <v>5</v>
       </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s">
-        <v>76</v>
+        <v>99</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K48" t="s">
+        <v>5</v>
       </c>
       <c r="M48" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K49" t="s">
+        <v>5</v>
       </c>
       <c r="M49" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K50" t="s">
+        <v>5</v>
       </c>
       <c r="M50" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>105</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K51" t="s">
+        <v>5</v>
       </c>
       <c r="M51" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K52" t="s">
+        <v>5</v>
       </c>
       <c r="M52" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>107</v>
+      </c>
+      <c r="F53" t="s">
+        <v>108</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>109</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K53" t="s">
+        <v>5</v>
       </c>
       <c r="M53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>110</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="K54" t="s">
+        <v>5</v>
       </c>
       <c r="M54" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>112</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="K55" t="s">
+        <v>5</v>
       </c>
       <c r="M55" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G56" t="s">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="K56" t="s">
+        <v>5</v>
       </c>
       <c r="M56" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K57" t="s">
+        <v>5</v>
       </c>
       <c r="M57" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G58" t="s">
-        <v>88</v>
+        <v>118</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K58" t="s">
+        <v>5</v>
       </c>
       <c r="M58" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>120</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K59" t="s">
+        <v>5</v>
       </c>
       <c r="M59" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>122</v>
+      </c>
+      <c r="F60" t="s">
+        <v>123</v>
       </c>
       <c r="G60" t="s">
-        <v>90</v>
+        <v>109</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K60" t="s">
+        <v>5</v>
       </c>
       <c r="M60" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>124</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
+        <v>38</v>
+      </c>
+      <c r="K61" t="s">
+        <v>5</v>
       </c>
       <c r="M61" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G62" t="s">
-        <v>92</v>
+        <v>116</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="K62" t="s">
+        <v>5</v>
       </c>
       <c r="M62" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G63" t="s">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K63" t="s">
+        <v>5</v>
       </c>
       <c r="M63" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
-      </c>
-      <c r="F64" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="G64" t="s">
+        <v>120</v>
+      </c>
+      <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K64" t="s">
+        <v>5</v>
       </c>
       <c r="M64" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
       </c>
-      <c r="D65" t="s">
-        <v>104</v>
-      </c>
       <c r="G65" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K65" t="s">
+        <v>5</v>
       </c>
       <c r="M65" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G66" t="s">
-        <v>101</v>
+        <v>116</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>4</v>
+        <v>283</v>
+      </c>
+      <c r="K66" t="s">
+        <v>5</v>
       </c>
       <c r="M66" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G67" t="s">
-        <v>102</v>
+        <v>118</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>4</v>
+        <v>283</v>
+      </c>
+      <c r="K67" t="s">
+        <v>5</v>
       </c>
       <c r="M67" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G68" t="s">
-        <v>76</v>
+        <v>120</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K68" t="s">
+        <v>5</v>
       </c>
       <c r="M68" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
+        <v>129</v>
       </c>
       <c r="G69" t="s">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K69" t="s">
+        <v>5</v>
       </c>
       <c r="M69" t="s">
         <v>36</v>
@@ -2010,249 +3155,3966 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
-      </c>
-      <c r="F70" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="G70" t="s">
+        <v>110</v>
+      </c>
+      <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="K70" t="s">
+        <v>5</v>
       </c>
       <c r="M70" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="G71" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="K71" t="s">
+        <v>5</v>
       </c>
       <c r="M71" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="G72" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K72" t="s">
+        <v>5</v>
       </c>
       <c r="M72" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="G73" t="s">
-        <v>76</v>
+        <v>118</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K73" t="s">
+        <v>5</v>
       </c>
       <c r="M73" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="G74" t="s">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>37</v>
+        <v>283</v>
+      </c>
+      <c r="K74" t="s">
+        <v>5</v>
       </c>
       <c r="M74" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F75" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G75" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="K75" t="s">
+        <v>5</v>
       </c>
       <c r="M75" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G76" t="s">
-        <v>8</v>
+        <v>134</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="K76" t="s">
+        <v>5</v>
       </c>
       <c r="M76" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G77" t="s">
-        <v>3</v>
+        <v>112</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="K77" t="s">
+        <v>5</v>
       </c>
       <c r="M77" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G78" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>114</v>
+        <v>4</v>
+      </c>
+      <c r="K78" t="s">
+        <v>5</v>
       </c>
       <c r="M78" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G79" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>114</v>
+        <v>4</v>
+      </c>
+      <c r="K79" t="s">
+        <v>5</v>
       </c>
       <c r="M79" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G80" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>114</v>
+        <v>4</v>
+      </c>
+      <c r="K80" t="s">
+        <v>5</v>
       </c>
       <c r="M80" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>136</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G81" t="s">
-        <v>118</v>
+        <v>138</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>114</v>
+        <v>283</v>
+      </c>
+      <c r="K81" t="s">
+        <v>5</v>
       </c>
       <c r="M81" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="G82" t="s">
-        <v>119</v>
+        <v>139</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>114</v>
+        <v>283</v>
+      </c>
+      <c r="K82" t="s">
+        <v>5</v>
       </c>
       <c r="M82" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="G83" t="s">
-        <v>120</v>
+        <v>140</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>114</v>
+        <v>283</v>
+      </c>
+      <c r="K83" t="s">
+        <v>5</v>
       </c>
       <c r="M83" t="s">
-        <v>126</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>136</v>
+      </c>
+      <c r="G84" t="s">
+        <v>141</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>283</v>
+      </c>
+      <c r="K84" t="s">
+        <v>5</v>
+      </c>
+      <c r="M84" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>136</v>
+      </c>
+      <c r="G85" t="s">
+        <v>142</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>283</v>
+      </c>
+      <c r="K85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M85" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>136</v>
+      </c>
+      <c r="G86" t="s">
+        <v>144</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>283</v>
+      </c>
+      <c r="K86" t="s">
+        <v>5</v>
+      </c>
+      <c r="M86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>283</v>
+      </c>
+      <c r="K87" t="s">
+        <v>5</v>
+      </c>
+      <c r="M87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>136</v>
+      </c>
+      <c r="G88" t="s">
+        <v>25</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>283</v>
+      </c>
+      <c r="K88" t="s">
+        <v>5</v>
+      </c>
+      <c r="M88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>147</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G89" t="s">
+        <v>149</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>283</v>
+      </c>
+      <c r="K89" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>147</v>
+      </c>
+      <c r="G90" t="s">
+        <v>150</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>283</v>
+      </c>
+      <c r="K90" t="s">
+        <v>5</v>
+      </c>
+      <c r="M90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>147</v>
+      </c>
+      <c r="G91" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>283</v>
+      </c>
+      <c r="K91" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>147</v>
+      </c>
+      <c r="G92" t="s">
+        <v>151</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>283</v>
+      </c>
+      <c r="K92" t="s">
+        <v>5</v>
+      </c>
+      <c r="M92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>147</v>
+      </c>
+      <c r="G93" t="s">
+        <v>152</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>283</v>
+      </c>
+      <c r="K93" t="s">
+        <v>5</v>
+      </c>
+      <c r="M93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>147</v>
+      </c>
+      <c r="G94" t="s">
+        <v>154</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>283</v>
+      </c>
+      <c r="K94" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>147</v>
+      </c>
+      <c r="G95" t="s">
+        <v>155</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>283</v>
+      </c>
+      <c r="K95" t="s">
+        <v>5</v>
+      </c>
+      <c r="M95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>147</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>283</v>
+      </c>
+      <c r="K96" t="s">
+        <v>5</v>
+      </c>
+      <c r="M96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>156</v>
+      </c>
+      <c r="F97" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" t="s">
+        <v>158</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>283</v>
+      </c>
+      <c r="K97" t="s">
+        <v>5</v>
+      </c>
+      <c r="M97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>156</v>
+      </c>
+      <c r="G98" t="s">
+        <v>159</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>283</v>
+      </c>
+      <c r="K98" t="s">
+        <v>5</v>
+      </c>
+      <c r="M98" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>156</v>
+      </c>
+      <c r="G99" t="s">
+        <v>160</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>283</v>
+      </c>
+      <c r="K99" t="s">
+        <v>5</v>
+      </c>
+      <c r="M99" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>156</v>
+      </c>
+      <c r="G100" t="s">
+        <v>162</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>283</v>
+      </c>
+      <c r="K100" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>156</v>
+      </c>
+      <c r="G101" t="s">
+        <v>163</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>283</v>
+      </c>
+      <c r="K101" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>156</v>
+      </c>
+      <c r="G102" t="s">
+        <v>165</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>283</v>
+      </c>
+      <c r="K102" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>156</v>
+      </c>
+      <c r="G103" t="s">
+        <v>167</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>283</v>
+      </c>
+      <c r="K103" t="s">
+        <v>5</v>
+      </c>
+      <c r="M103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>156</v>
+      </c>
+      <c r="G104" t="s">
+        <v>168</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>283</v>
+      </c>
+      <c r="K104" t="s">
+        <v>5</v>
+      </c>
+      <c r="M104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>156</v>
+      </c>
+      <c r="G105" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>283</v>
+      </c>
+      <c r="K105" t="s">
+        <v>5</v>
+      </c>
+      <c r="M105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>169</v>
+      </c>
+      <c r="F106" t="s">
+        <v>170</v>
+      </c>
+      <c r="G106" t="s">
+        <v>171</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>283</v>
+      </c>
+      <c r="K106" t="s">
+        <v>5</v>
+      </c>
+      <c r="M106" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>169</v>
+      </c>
+      <c r="G107" t="s">
+        <v>172</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>283</v>
+      </c>
+      <c r="K107" t="s">
+        <v>5</v>
+      </c>
+      <c r="M107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>169</v>
+      </c>
+      <c r="G108" t="s">
+        <v>173</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>283</v>
+      </c>
+      <c r="K108" t="s">
+        <v>5</v>
+      </c>
+      <c r="M108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>169</v>
+      </c>
+      <c r="G109" t="s">
+        <v>174</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>283</v>
+      </c>
+      <c r="K109" t="s">
+        <v>5</v>
+      </c>
+      <c r="M109" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>169</v>
+      </c>
+      <c r="G110" t="s">
+        <v>175</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>283</v>
+      </c>
+      <c r="K110" t="s">
+        <v>5</v>
+      </c>
+      <c r="M110" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>169</v>
+      </c>
+      <c r="G111" t="s">
+        <v>177</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>283</v>
+      </c>
+      <c r="K111" t="s">
+        <v>5</v>
+      </c>
+      <c r="M111" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>169</v>
+      </c>
+      <c r="G112" t="s">
+        <v>179</v>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>283</v>
+      </c>
+      <c r="K112" t="s">
+        <v>5</v>
+      </c>
+      <c r="M112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>169</v>
+      </c>
+      <c r="G113" t="s">
+        <v>180</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>283</v>
+      </c>
+      <c r="K113" t="s">
+        <v>5</v>
+      </c>
+      <c r="M113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>169</v>
+      </c>
+      <c r="G114" t="s">
+        <v>25</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>283</v>
+      </c>
+      <c r="K114" t="s">
+        <v>5</v>
+      </c>
+      <c r="M114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>181</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G115" t="s">
+        <v>183</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>283</v>
+      </c>
+      <c r="K115" t="s">
+        <v>5</v>
+      </c>
+      <c r="M115" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>181</v>
+      </c>
+      <c r="G116" t="s">
+        <v>184</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>283</v>
+      </c>
+      <c r="K116" t="s">
+        <v>5</v>
+      </c>
+      <c r="M116" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>181</v>
+      </c>
+      <c r="G117" t="s">
+        <v>185</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>283</v>
+      </c>
+      <c r="K117" t="s">
+        <v>5</v>
+      </c>
+      <c r="M117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>181</v>
+      </c>
+      <c r="G118" t="s">
+        <v>186</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>283</v>
+      </c>
+      <c r="K118" t="s">
+        <v>5</v>
+      </c>
+      <c r="M118" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>181</v>
+      </c>
+      <c r="G119" t="s">
+        <v>187</v>
+      </c>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>283</v>
+      </c>
+      <c r="K119" t="s">
+        <v>5</v>
+      </c>
+      <c r="M119" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>181</v>
+      </c>
+      <c r="G120" t="s">
+        <v>189</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>283</v>
+      </c>
+      <c r="K120" t="s">
+        <v>5</v>
+      </c>
+      <c r="M120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>181</v>
+      </c>
+      <c r="G121" t="s">
+        <v>190</v>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>283</v>
+      </c>
+      <c r="K121" t="s">
+        <v>5</v>
+      </c>
+      <c r="M121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>181</v>
+      </c>
+      <c r="G122" t="s">
+        <v>25</v>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>283</v>
+      </c>
+      <c r="K122" t="s">
+        <v>5</v>
+      </c>
+      <c r="M122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>191</v>
+      </c>
+      <c r="F123" t="s">
+        <v>192</v>
+      </c>
+      <c r="G123" t="s">
+        <v>3</v>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>283</v>
+      </c>
+      <c r="K123" t="s">
+        <v>5</v>
+      </c>
+      <c r="M123" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>191</v>
+      </c>
+      <c r="G124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>283</v>
+      </c>
+      <c r="K124" t="s">
+        <v>5</v>
+      </c>
+      <c r="M124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>191</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>283</v>
+      </c>
+      <c r="K125" t="s">
+        <v>5</v>
+      </c>
+      <c r="M125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>191</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>13</v>
+      </c>
+      <c r="K126" t="s">
+        <v>5</v>
+      </c>
+      <c r="M126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>191</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>283</v>
+      </c>
+      <c r="K127" t="s">
+        <v>5</v>
+      </c>
+      <c r="M127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>283</v>
+      </c>
+      <c r="K128" t="s">
+        <v>5</v>
+      </c>
+      <c r="M128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>191</v>
+      </c>
+      <c r="G129" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>283</v>
+      </c>
+      <c r="K129" t="s">
+        <v>5</v>
+      </c>
+      <c r="M129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>191</v>
+      </c>
+      <c r="G130" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>283</v>
+      </c>
+      <c r="K130" t="s">
+        <v>5</v>
+      </c>
+      <c r="M130" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>191</v>
+      </c>
+      <c r="G131" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>283</v>
+      </c>
+      <c r="K131" t="s">
+        <v>5</v>
+      </c>
+      <c r="M131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>191</v>
+      </c>
+      <c r="G132" t="s">
+        <v>25</v>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>283</v>
+      </c>
+      <c r="K132" t="s">
+        <v>5</v>
+      </c>
+      <c r="M132" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>191</v>
+      </c>
+      <c r="G133" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>283</v>
+      </c>
+      <c r="K133" t="s">
+        <v>5</v>
+      </c>
+      <c r="M133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>194</v>
+      </c>
+      <c r="F134" t="s">
+        <v>195</v>
+      </c>
+      <c r="G134" t="s">
+        <v>196</v>
+      </c>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>283</v>
+      </c>
+      <c r="K134" t="s">
+        <v>5</v>
+      </c>
+      <c r="M134" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>194</v>
+      </c>
+      <c r="G135" t="s">
+        <v>197</v>
+      </c>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>283</v>
+      </c>
+      <c r="K135" t="s">
+        <v>5</v>
+      </c>
+      <c r="M135" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>194</v>
+      </c>
+      <c r="G136" t="s">
+        <v>198</v>
+      </c>
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>283</v>
+      </c>
+      <c r="K136" t="s">
+        <v>5</v>
+      </c>
+      <c r="M136" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>194</v>
+      </c>
+      <c r="G137" t="s">
+        <v>199</v>
+      </c>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>283</v>
+      </c>
+      <c r="K137" t="s">
+        <v>5</v>
+      </c>
+      <c r="M137" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>194</v>
+      </c>
+      <c r="G138" t="s">
+        <v>200</v>
+      </c>
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>283</v>
+      </c>
+      <c r="K138" t="s">
+        <v>5</v>
+      </c>
+      <c r="M138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" t="s">
+        <v>194</v>
+      </c>
+      <c r="G139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>283</v>
+      </c>
+      <c r="K139" t="s">
+        <v>5</v>
+      </c>
+      <c r="M139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>194</v>
+      </c>
+      <c r="G140" t="s">
+        <v>202</v>
+      </c>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>283</v>
+      </c>
+      <c r="K140" t="s">
+        <v>5</v>
+      </c>
+      <c r="M140" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>194</v>
+      </c>
+      <c r="G141" t="s">
+        <v>203</v>
+      </c>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>283</v>
+      </c>
+      <c r="K141" t="s">
+        <v>5</v>
+      </c>
+      <c r="M141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>194</v>
+      </c>
+      <c r="G142" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="s">
+        <v>283</v>
+      </c>
+      <c r="K142" t="s">
+        <v>5</v>
+      </c>
+      <c r="M142" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G143" t="s">
+        <v>206</v>
+      </c>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>4</v>
+      </c>
+      <c r="K143" t="s">
+        <v>5</v>
+      </c>
+      <c r="M143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s">
+        <v>204</v>
+      </c>
+      <c r="G144" t="s">
+        <v>207</v>
+      </c>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>4</v>
+      </c>
+      <c r="K144" t="s">
+        <v>5</v>
+      </c>
+      <c r="M144" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>204</v>
+      </c>
+      <c r="G145" t="s">
+        <v>209</v>
+      </c>
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>13</v>
+      </c>
+      <c r="K145" t="s">
+        <v>5</v>
+      </c>
+      <c r="M145" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>204</v>
+      </c>
+      <c r="G146" t="s">
+        <v>211</v>
+      </c>
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>4</v>
+      </c>
+      <c r="K146" t="s">
+        <v>5</v>
+      </c>
+      <c r="M146" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s">
+        <v>204</v>
+      </c>
+      <c r="G147" t="s">
+        <v>212</v>
+      </c>
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="s">
+        <v>4</v>
+      </c>
+      <c r="K147" t="s">
+        <v>5</v>
+      </c>
+      <c r="M147" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>204</v>
+      </c>
+      <c r="G148" t="s">
+        <v>214</v>
+      </c>
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>4</v>
+      </c>
+      <c r="K148" t="s">
+        <v>5</v>
+      </c>
+      <c r="M148" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" t="s">
+        <v>204</v>
+      </c>
+      <c r="G149" t="s">
+        <v>25</v>
+      </c>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>4</v>
+      </c>
+      <c r="K149" t="s">
+        <v>5</v>
+      </c>
+      <c r="M149" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>216</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G150" t="s">
+        <v>218</v>
+      </c>
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>283</v>
+      </c>
+      <c r="K150" t="s">
+        <v>5</v>
+      </c>
+      <c r="M150" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" t="s">
+        <v>216</v>
+      </c>
+      <c r="G151" t="s">
+        <v>219</v>
+      </c>
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>283</v>
+      </c>
+      <c r="K151" t="s">
+        <v>5</v>
+      </c>
+      <c r="M151" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>216</v>
+      </c>
+      <c r="G152" t="s">
+        <v>220</v>
+      </c>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>283</v>
+      </c>
+      <c r="K152" t="s">
+        <v>5</v>
+      </c>
+      <c r="M152" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>216</v>
+      </c>
+      <c r="G153" t="s">
+        <v>221</v>
+      </c>
+      <c r="H153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>283</v>
+      </c>
+      <c r="K153" t="s">
+        <v>5</v>
+      </c>
+      <c r="M153" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>216</v>
+      </c>
+      <c r="G154" t="s">
+        <v>222</v>
+      </c>
+      <c r="H154" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>283</v>
+      </c>
+      <c r="K154" t="s">
+        <v>5</v>
+      </c>
+      <c r="M154" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>216</v>
+      </c>
+      <c r="G155" t="s">
+        <v>223</v>
+      </c>
+      <c r="H155" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" t="s">
+        <v>283</v>
+      </c>
+      <c r="K155" t="s">
+        <v>5</v>
+      </c>
+      <c r="M155" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>216</v>
+      </c>
+      <c r="G156" t="s">
+        <v>224</v>
+      </c>
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
+        <v>283</v>
+      </c>
+      <c r="K156" t="s">
+        <v>5</v>
+      </c>
+      <c r="M156" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>216</v>
+      </c>
+      <c r="G157" t="s">
+        <v>25</v>
+      </c>
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="s">
+        <v>283</v>
+      </c>
+      <c r="K157" t="s">
+        <v>5</v>
+      </c>
+      <c r="M157" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>225</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G158" t="s">
+        <v>227</v>
+      </c>
+      <c r="H158" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>283</v>
+      </c>
+      <c r="K158" t="s">
+        <v>5</v>
+      </c>
+      <c r="M158" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>225</v>
+      </c>
+      <c r="G159" t="s">
+        <v>228</v>
+      </c>
+      <c r="H159" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>283</v>
+      </c>
+      <c r="K159" t="s">
+        <v>5</v>
+      </c>
+      <c r="M159" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" t="s">
+        <v>225</v>
+      </c>
+      <c r="G160" t="s">
+        <v>229</v>
+      </c>
+      <c r="H160" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>283</v>
+      </c>
+      <c r="K160" t="s">
+        <v>5</v>
+      </c>
+      <c r="M160" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>225</v>
+      </c>
+      <c r="G161" t="s">
+        <v>230</v>
+      </c>
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" t="s">
+        <v>283</v>
+      </c>
+      <c r="K161" t="s">
+        <v>5</v>
+      </c>
+      <c r="M161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>225</v>
+      </c>
+      <c r="G162" t="s">
+        <v>231</v>
+      </c>
+      <c r="H162" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" t="s">
+        <v>283</v>
+      </c>
+      <c r="K162" t="s">
+        <v>5</v>
+      </c>
+      <c r="M162" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" t="s">
+        <v>225</v>
+      </c>
+      <c r="G163" t="s">
+        <v>232</v>
+      </c>
+      <c r="H163" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" t="s">
+        <v>283</v>
+      </c>
+      <c r="K163" t="s">
+        <v>5</v>
+      </c>
+      <c r="M163" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>225</v>
+      </c>
+      <c r="G164" t="s">
+        <v>233</v>
+      </c>
+      <c r="H164" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" t="s">
+        <v>283</v>
+      </c>
+      <c r="K164" t="s">
+        <v>5</v>
+      </c>
+      <c r="M164" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>225</v>
+      </c>
+      <c r="G165" t="s">
+        <v>234</v>
+      </c>
+      <c r="H165" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>283</v>
+      </c>
+      <c r="K165" t="s">
+        <v>5</v>
+      </c>
+      <c r="M165" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>225</v>
+      </c>
+      <c r="G166" t="s">
+        <v>25</v>
+      </c>
+      <c r="H166" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>283</v>
+      </c>
+      <c r="K166" t="s">
+        <v>5</v>
+      </c>
+      <c r="M166" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>235</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G167" t="s">
+        <v>237</v>
+      </c>
+      <c r="H167" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>283</v>
+      </c>
+      <c r="K167" t="s">
+        <v>5</v>
+      </c>
+      <c r="M167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>235</v>
+      </c>
+      <c r="G168" t="s">
+        <v>238</v>
+      </c>
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>283</v>
+      </c>
+      <c r="K168" t="s">
+        <v>5</v>
+      </c>
+      <c r="M168" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>235</v>
+      </c>
+      <c r="G169" t="s">
+        <v>240</v>
+      </c>
+      <c r="H169" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>283</v>
+      </c>
+      <c r="K169" t="s">
+        <v>5</v>
+      </c>
+      <c r="M169" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>235</v>
+      </c>
+      <c r="G170" t="s">
+        <v>242</v>
+      </c>
+      <c r="H170" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>283</v>
+      </c>
+      <c r="K170" t="s">
+        <v>5</v>
+      </c>
+      <c r="M170" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>235</v>
+      </c>
+      <c r="G171" t="s">
+        <v>243</v>
+      </c>
+      <c r="H171" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" t="s">
+        <v>283</v>
+      </c>
+      <c r="K171" t="s">
+        <v>5</v>
+      </c>
+      <c r="M171" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>235</v>
+      </c>
+      <c r="G172" t="s">
+        <v>245</v>
+      </c>
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="s">
+        <v>283</v>
+      </c>
+      <c r="K172" t="s">
+        <v>5</v>
+      </c>
+      <c r="M172" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>235</v>
+      </c>
+      <c r="G173" t="s">
+        <v>247</v>
+      </c>
+      <c r="H173" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" t="s">
+        <v>283</v>
+      </c>
+      <c r="K173" t="s">
+        <v>5</v>
+      </c>
+      <c r="M173" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>235</v>
+      </c>
+      <c r="G174" t="s">
+        <v>249</v>
+      </c>
+      <c r="H174" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" t="s">
+        <v>283</v>
+      </c>
+      <c r="K174" t="s">
+        <v>5</v>
+      </c>
+      <c r="M174" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>235</v>
+      </c>
+      <c r="G175" t="s">
+        <v>25</v>
+      </c>
+      <c r="H175" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" t="s">
+        <v>283</v>
+      </c>
+      <c r="K175" t="s">
+        <v>5</v>
+      </c>
+      <c r="M175" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176" t="s">
+        <v>376</v>
+      </c>
+      <c r="D176" t="s">
+        <v>253</v>
+      </c>
+      <c r="F176" t="s">
+        <v>252</v>
+      </c>
+      <c r="G176" t="s">
+        <v>259</v>
+      </c>
+      <c r="H176" t="b">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
+        <v>283</v>
+      </c>
+      <c r="J176" t="b">
+        <v>0</v>
+      </c>
+      <c r="K176" t="s">
+        <v>257</v>
+      </c>
+      <c r="M176" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>375</v>
+      </c>
+      <c r="D177" t="s">
+        <v>253</v>
+      </c>
+      <c r="G177" t="s">
+        <v>33</v>
+      </c>
+      <c r="H177" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>283</v>
+      </c>
+      <c r="K177" t="s">
+        <v>257</v>
+      </c>
+      <c r="M177" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>375</v>
+      </c>
+      <c r="D178" t="s">
+        <v>253</v>
+      </c>
+      <c r="G178" t="s">
+        <v>31</v>
+      </c>
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>283</v>
+      </c>
+      <c r="M178" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>375</v>
+      </c>
+      <c r="D179" t="s">
+        <v>253</v>
+      </c>
+      <c r="G179" t="s">
+        <v>254</v>
+      </c>
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" t="s">
+        <v>283</v>
+      </c>
+      <c r="M179" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>375</v>
+      </c>
+      <c r="D180" t="s">
+        <v>253</v>
+      </c>
+      <c r="G180" t="s">
+        <v>264</v>
+      </c>
+      <c r="H180" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" t="s">
+        <v>283</v>
+      </c>
+      <c r="M180" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>375</v>
+      </c>
+      <c r="D181" t="s">
+        <v>253</v>
+      </c>
+      <c r="G181" t="s">
+        <v>267</v>
+      </c>
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" t="s">
+        <v>283</v>
+      </c>
+      <c r="M181" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>375</v>
+      </c>
+      <c r="D182" t="s">
+        <v>253</v>
+      </c>
+      <c r="G182" t="s">
+        <v>269</v>
+      </c>
+      <c r="H182" t="b">
+        <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>283</v>
+      </c>
+      <c r="M182" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>375</v>
+      </c>
+      <c r="D183" t="s">
+        <v>253</v>
+      </c>
+      <c r="G183" t="s">
+        <v>268</v>
+      </c>
+      <c r="H183" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" t="s">
+        <v>283</v>
+      </c>
+      <c r="M183" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>375</v>
+      </c>
+      <c r="D184" t="s">
+        <v>253</v>
+      </c>
+      <c r="G184" t="s">
+        <v>270</v>
+      </c>
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" t="s">
+        <v>283</v>
+      </c>
+      <c r="K184" t="s">
+        <v>271</v>
+      </c>
+      <c r="M184" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>375</v>
+      </c>
+      <c r="D185" t="s">
+        <v>273</v>
+      </c>
+      <c r="F185" t="s">
+        <v>272</v>
+      </c>
+      <c r="G185" t="s">
+        <v>3</v>
+      </c>
+      <c r="I185" t="s">
+        <v>283</v>
+      </c>
+      <c r="M185" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>375</v>
+      </c>
+      <c r="D186" t="s">
+        <v>273</v>
+      </c>
+      <c r="G186" t="s">
+        <v>274</v>
+      </c>
+      <c r="I186" t="s">
+        <v>284</v>
+      </c>
+      <c r="M186" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>375</v>
+      </c>
+      <c r="D187" t="s">
+        <v>273</v>
+      </c>
+      <c r="G187" t="s">
+        <v>275</v>
+      </c>
+      <c r="I187" t="s">
+        <v>38</v>
+      </c>
+      <c r="M187" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>375</v>
+      </c>
+      <c r="D188" t="s">
+        <v>273</v>
+      </c>
+      <c r="G188" t="s">
+        <v>276</v>
+      </c>
+      <c r="I188" t="s">
+        <v>284</v>
+      </c>
+      <c r="M188" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>375</v>
+      </c>
+      <c r="D189" t="s">
+        <v>273</v>
+      </c>
+      <c r="G189" t="s">
+        <v>277</v>
+      </c>
+      <c r="I189" t="s">
+        <v>283</v>
+      </c>
+      <c r="M189" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>375</v>
+      </c>
+      <c r="D190" t="s">
+        <v>273</v>
+      </c>
+      <c r="G190" t="s">
+        <v>25</v>
+      </c>
+      <c r="I190" t="s">
+        <v>283</v>
+      </c>
+      <c r="M190" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>375</v>
+      </c>
+      <c r="D191" t="s">
+        <v>286</v>
+      </c>
+      <c r="F191" t="s">
+        <v>285</v>
+      </c>
+      <c r="G191" t="s">
+        <v>3</v>
+      </c>
+      <c r="I191" t="s">
+        <v>283</v>
+      </c>
+      <c r="M191" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>375</v>
+      </c>
+      <c r="D192" t="s">
+        <v>286</v>
+      </c>
+      <c r="G192" t="s">
+        <v>274</v>
+      </c>
+      <c r="I192" t="s">
+        <v>38</v>
+      </c>
+      <c r="M192" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>375</v>
+      </c>
+      <c r="D193" t="s">
+        <v>286</v>
+      </c>
+      <c r="G193" t="s">
+        <v>275</v>
+      </c>
+      <c r="I193" t="s">
+        <v>38</v>
+      </c>
+      <c r="M193" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>375</v>
+      </c>
+      <c r="D194" t="s">
+        <v>286</v>
+      </c>
+      <c r="G194" t="s">
+        <v>287</v>
+      </c>
+      <c r="I194" t="s">
+        <v>38</v>
+      </c>
+      <c r="M194" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>375</v>
+      </c>
+      <c r="D195" t="s">
+        <v>286</v>
+      </c>
+      <c r="G195" t="s">
+        <v>288</v>
+      </c>
+      <c r="I195" t="s">
+        <v>283</v>
+      </c>
+      <c r="M195" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>375</v>
+      </c>
+      <c r="D196" t="s">
+        <v>286</v>
+      </c>
+      <c r="G196" t="s">
+        <v>25</v>
+      </c>
+      <c r="I196" t="s">
+        <v>283</v>
+      </c>
+      <c r="M196" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>375</v>
+      </c>
+      <c r="D197" t="s">
+        <v>290</v>
+      </c>
+      <c r="F197" t="s">
+        <v>289</v>
+      </c>
+      <c r="G197" t="s">
+        <v>3</v>
+      </c>
+      <c r="I197" t="s">
+        <v>283</v>
+      </c>
+      <c r="M197" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>375</v>
+      </c>
+      <c r="D198" t="s">
+        <v>290</v>
+      </c>
+      <c r="G198" t="s">
+        <v>291</v>
+      </c>
+      <c r="I198" t="s">
+        <v>283</v>
+      </c>
+      <c r="M198" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>375</v>
+      </c>
+      <c r="D199" t="s">
+        <v>290</v>
+      </c>
+      <c r="G199" t="s">
+        <v>274</v>
+      </c>
+      <c r="I199" t="s">
+        <v>38</v>
+      </c>
+      <c r="M199" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>375</v>
+      </c>
+      <c r="D200" t="s">
+        <v>290</v>
+      </c>
+      <c r="G200" t="s">
+        <v>275</v>
+      </c>
+      <c r="I200" t="s">
+        <v>38</v>
+      </c>
+      <c r="M200" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>375</v>
+      </c>
+      <c r="D201" t="s">
+        <v>290</v>
+      </c>
+      <c r="G201" t="s">
+        <v>292</v>
+      </c>
+      <c r="I201" t="s">
+        <v>38</v>
+      </c>
+      <c r="M201" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>375</v>
+      </c>
+      <c r="D202" t="s">
+        <v>290</v>
+      </c>
+      <c r="G202" t="s">
+        <v>293</v>
+      </c>
+      <c r="I202" t="s">
+        <v>283</v>
+      </c>
+      <c r="M202" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>375</v>
+      </c>
+      <c r="D203" t="s">
+        <v>290</v>
+      </c>
+      <c r="G203" t="s">
+        <v>294</v>
+      </c>
+      <c r="I203" t="s">
+        <v>38</v>
+      </c>
+      <c r="M203" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>375</v>
+      </c>
+      <c r="D204" t="s">
+        <v>290</v>
+      </c>
+      <c r="G204" t="s">
+        <v>25</v>
+      </c>
+      <c r="I204" t="s">
+        <v>283</v>
+      </c>
+      <c r="M204" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>375</v>
+      </c>
+      <c r="D205" t="s">
+        <v>300</v>
+      </c>
+      <c r="F205" t="s">
+        <v>299</v>
+      </c>
+      <c r="G205" t="s">
+        <v>3</v>
+      </c>
+      <c r="I205" t="s">
+        <v>283</v>
+      </c>
+      <c r="M205" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>375</v>
+      </c>
+      <c r="D206" t="s">
+        <v>300</v>
+      </c>
+      <c r="G206" t="s">
+        <v>301</v>
+      </c>
+      <c r="I206" t="s">
+        <v>283</v>
+      </c>
+      <c r="M206" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>375</v>
+      </c>
+      <c r="D207" t="s">
+        <v>300</v>
+      </c>
+      <c r="G207" t="s">
+        <v>302</v>
+      </c>
+      <c r="I207" t="s">
+        <v>283</v>
+      </c>
+      <c r="M207" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>375</v>
+      </c>
+      <c r="D208" t="s">
+        <v>300</v>
+      </c>
+      <c r="G208" t="s">
+        <v>303</v>
+      </c>
+      <c r="I208" t="s">
+        <v>283</v>
+      </c>
+      <c r="M208" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>375</v>
+      </c>
+      <c r="D209" t="s">
+        <v>300</v>
+      </c>
+      <c r="G209" t="s">
+        <v>274</v>
+      </c>
+      <c r="I209" t="s">
+        <v>284</v>
+      </c>
+      <c r="M209" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>375</v>
+      </c>
+      <c r="D210" t="s">
+        <v>300</v>
+      </c>
+      <c r="G210" t="s">
+        <v>275</v>
+      </c>
+      <c r="I210" t="s">
+        <v>284</v>
+      </c>
+      <c r="M210" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>375</v>
+      </c>
+      <c r="D211" t="s">
+        <v>300</v>
+      </c>
+      <c r="G211" t="s">
+        <v>304</v>
+      </c>
+      <c r="I211" t="s">
+        <v>284</v>
+      </c>
+      <c r="M211" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>375</v>
+      </c>
+      <c r="D212" t="s">
+        <v>300</v>
+      </c>
+      <c r="G212" t="s">
+        <v>305</v>
+      </c>
+      <c r="I212" t="s">
+        <v>284</v>
+      </c>
+      <c r="M212" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>375</v>
+      </c>
+      <c r="D213" t="s">
+        <v>300</v>
+      </c>
+      <c r="G213" t="s">
+        <v>306</v>
+      </c>
+      <c r="I213" t="s">
+        <v>283</v>
+      </c>
+      <c r="M213" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>375</v>
+      </c>
+      <c r="D214" t="s">
+        <v>300</v>
+      </c>
+      <c r="G214" t="s">
+        <v>25</v>
+      </c>
+      <c r="I214" t="s">
+        <v>283</v>
+      </c>
+      <c r="M214" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>375</v>
+      </c>
+      <c r="D215" t="s">
+        <v>313</v>
+      </c>
+      <c r="F215" t="s">
+        <v>312</v>
+      </c>
+      <c r="G215" t="s">
+        <v>3</v>
+      </c>
+      <c r="I215" t="s">
+        <v>283</v>
+      </c>
+      <c r="M215" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>375</v>
+      </c>
+      <c r="D216" t="s">
+        <v>313</v>
+      </c>
+      <c r="G216" t="s">
+        <v>318</v>
+      </c>
+      <c r="I216" t="s">
+        <v>283</v>
+      </c>
+      <c r="M216" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>375</v>
+      </c>
+      <c r="D217" t="s">
+        <v>313</v>
+      </c>
+      <c r="G217" t="s">
+        <v>319</v>
+      </c>
+      <c r="I217" t="s">
+        <v>38</v>
+      </c>
+      <c r="M217" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>375</v>
+      </c>
+      <c r="D218" t="s">
+        <v>313</v>
+      </c>
+      <c r="G218" t="s">
+        <v>320</v>
+      </c>
+      <c r="I218" t="s">
+        <v>283</v>
+      </c>
+      <c r="M218" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>375</v>
+      </c>
+      <c r="D219" t="s">
+        <v>313</v>
+      </c>
+      <c r="G219" t="s">
+        <v>321</v>
+      </c>
+      <c r="I219" t="s">
+        <v>283</v>
+      </c>
+      <c r="M219" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>375</v>
+      </c>
+      <c r="D220" t="s">
+        <v>313</v>
+      </c>
+      <c r="G220" t="s">
+        <v>274</v>
+      </c>
+      <c r="I220" t="s">
+        <v>38</v>
+      </c>
+      <c r="M220" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>375</v>
+      </c>
+      <c r="D221" t="s">
+        <v>313</v>
+      </c>
+      <c r="G221" t="s">
+        <v>275</v>
+      </c>
+      <c r="I221" t="s">
+        <v>38</v>
+      </c>
+      <c r="M221" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>375</v>
+      </c>
+      <c r="D222" t="s">
+        <v>313</v>
+      </c>
+      <c r="G222" t="s">
+        <v>322</v>
+      </c>
+      <c r="I222" t="s">
+        <v>283</v>
+      </c>
+      <c r="M222" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>375</v>
+      </c>
+      <c r="D223" t="s">
+        <v>313</v>
+      </c>
+      <c r="G223" t="s">
+        <v>25</v>
+      </c>
+      <c r="I223" t="s">
+        <v>283</v>
+      </c>
+      <c r="M223" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>375</v>
+      </c>
+      <c r="D224" t="s">
+        <v>327</v>
+      </c>
+      <c r="F224" t="s">
+        <v>323</v>
+      </c>
+      <c r="G224" t="s">
+        <v>3</v>
+      </c>
+      <c r="I224" t="s">
+        <v>283</v>
+      </c>
+      <c r="M224" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>375</v>
+      </c>
+      <c r="D225" t="s">
+        <v>327</v>
+      </c>
+      <c r="G225" t="s">
+        <v>324</v>
+      </c>
+      <c r="I225" t="s">
+        <v>283</v>
+      </c>
+      <c r="M225" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>375</v>
+      </c>
+      <c r="D226" t="s">
+        <v>327</v>
+      </c>
+      <c r="G226" t="s">
+        <v>274</v>
+      </c>
+      <c r="I226" t="s">
+        <v>283</v>
+      </c>
+      <c r="M226" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>375</v>
+      </c>
+      <c r="D227" t="s">
+        <v>327</v>
+      </c>
+      <c r="G227" t="s">
+        <v>275</v>
+      </c>
+      <c r="I227" t="s">
+        <v>283</v>
+      </c>
+      <c r="M227" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>375</v>
+      </c>
+      <c r="D228" t="s">
+        <v>327</v>
+      </c>
+      <c r="G228" t="s">
+        <v>325</v>
+      </c>
+      <c r="I228" t="s">
+        <v>283</v>
+      </c>
+      <c r="M228" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>375</v>
+      </c>
+      <c r="D229" t="s">
+        <v>327</v>
+      </c>
+      <c r="G229" t="s">
+        <v>326</v>
+      </c>
+      <c r="I229" t="s">
+        <v>283</v>
+      </c>
+      <c r="M229" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>375</v>
+      </c>
+      <c r="D230" t="s">
+        <v>327</v>
+      </c>
+      <c r="G230" t="s">
+        <v>25</v>
+      </c>
+      <c r="I230" t="s">
+        <v>283</v>
+      </c>
+      <c r="M230" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>375</v>
+      </c>
+      <c r="D231" t="s">
+        <v>342</v>
+      </c>
+      <c r="F231" t="s">
+        <v>328</v>
+      </c>
+      <c r="G231" t="s">
+        <v>3</v>
+      </c>
+      <c r="I231" t="s">
+        <v>283</v>
+      </c>
+      <c r="M231" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>375</v>
+      </c>
+      <c r="D232" t="s">
+        <v>342</v>
+      </c>
+      <c r="G232" t="s">
+        <v>334</v>
+      </c>
+      <c r="I232" t="s">
+        <v>283</v>
+      </c>
+      <c r="M232" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>375</v>
+      </c>
+      <c r="D233" t="s">
+        <v>342</v>
+      </c>
+      <c r="G233" t="s">
+        <v>335</v>
+      </c>
+      <c r="I233" t="s">
+        <v>283</v>
+      </c>
+      <c r="M233" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>375</v>
+      </c>
+      <c r="D234" t="s">
+        <v>342</v>
+      </c>
+      <c r="G234" t="s">
+        <v>336</v>
+      </c>
+      <c r="I234" t="s">
+        <v>283</v>
+      </c>
+      <c r="M234" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>375</v>
+      </c>
+      <c r="D235" t="s">
+        <v>342</v>
+      </c>
+      <c r="G235" t="s">
+        <v>337</v>
+      </c>
+      <c r="I235" t="s">
+        <v>340</v>
+      </c>
+      <c r="M235" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>375</v>
+      </c>
+      <c r="D236" t="s">
+        <v>342</v>
+      </c>
+      <c r="G236" t="s">
+        <v>338</v>
+      </c>
+      <c r="I236" t="s">
+        <v>339</v>
+      </c>
+      <c r="M236" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>375</v>
+      </c>
+      <c r="D237" t="s">
+        <v>342</v>
+      </c>
+      <c r="G237" t="s">
+        <v>25</v>
+      </c>
+      <c r="I237" t="s">
+        <v>283</v>
+      </c>
+      <c r="M237" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>375</v>
+      </c>
+      <c r="D238" t="s">
+        <v>350</v>
+      </c>
+      <c r="F238" t="s">
+        <v>341</v>
+      </c>
+      <c r="G238" t="s">
+        <v>3</v>
+      </c>
+      <c r="I238" t="s">
+        <v>283</v>
+      </c>
+      <c r="M238" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>375</v>
+      </c>
+      <c r="D239" t="s">
+        <v>350</v>
+      </c>
+      <c r="G239" t="s">
+        <v>346</v>
+      </c>
+      <c r="I239" t="s">
+        <v>283</v>
+      </c>
+      <c r="M239" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>375</v>
+      </c>
+      <c r="D240" t="s">
+        <v>350</v>
+      </c>
+      <c r="G240" t="s">
+        <v>347</v>
+      </c>
+      <c r="I240" t="s">
+        <v>38</v>
+      </c>
+      <c r="M240" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>375</v>
+      </c>
+      <c r="D241" t="s">
+        <v>350</v>
+      </c>
+      <c r="G241" t="s">
+        <v>348</v>
+      </c>
+      <c r="I241" t="s">
+        <v>38</v>
+      </c>
+      <c r="M241" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>375</v>
+      </c>
+      <c r="D242" t="s">
+        <v>350</v>
+      </c>
+      <c r="G242" t="s">
+        <v>322</v>
+      </c>
+      <c r="I242" t="s">
+        <v>283</v>
+      </c>
+      <c r="M242" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>375</v>
+      </c>
+      <c r="D243" t="s">
+        <v>350</v>
+      </c>
+      <c r="G243" t="s">
+        <v>25</v>
+      </c>
+      <c r="I243" t="s">
+        <v>283</v>
+      </c>
+      <c r="M243" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>375</v>
+      </c>
+      <c r="D244" t="s">
+        <v>351</v>
+      </c>
+      <c r="F244" t="s">
+        <v>349</v>
+      </c>
+      <c r="G244" t="s">
+        <v>3</v>
+      </c>
+      <c r="I244" t="s">
+        <v>283</v>
+      </c>
+      <c r="M244" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>375</v>
+      </c>
+      <c r="D245" t="s">
+        <v>351</v>
+      </c>
+      <c r="G245" t="s">
+        <v>354</v>
+      </c>
+      <c r="I245" t="s">
+        <v>283</v>
+      </c>
+      <c r="M245" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>375</v>
+      </c>
+      <c r="D246" t="s">
+        <v>351</v>
+      </c>
+      <c r="G246" t="s">
+        <v>355</v>
+      </c>
+      <c r="I246" t="s">
+        <v>283</v>
+      </c>
+      <c r="M246" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>375</v>
+      </c>
+      <c r="D247" t="s">
+        <v>351</v>
+      </c>
+      <c r="G247" t="s">
+        <v>322</v>
+      </c>
+      <c r="I247" t="s">
+        <v>283</v>
+      </c>
+      <c r="M247" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>375</v>
+      </c>
+      <c r="D248" t="s">
+        <v>351</v>
+      </c>
+      <c r="G248" t="s">
+        <v>25</v>
+      </c>
+      <c r="I248" t="s">
+        <v>283</v>
+      </c>
+      <c r="M248" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>375</v>
+      </c>
+      <c r="D249" t="s">
+        <v>356</v>
+      </c>
+      <c r="F249" t="s">
+        <v>357</v>
+      </c>
+      <c r="G249" t="s">
+        <v>358</v>
+      </c>
+      <c r="I249" t="s">
+        <v>283</v>
+      </c>
+      <c r="M249" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>375</v>
+      </c>
+      <c r="D250" t="s">
+        <v>356</v>
+      </c>
+      <c r="G250" t="s">
+        <v>254</v>
+      </c>
+      <c r="I250" t="s">
+        <v>283</v>
+      </c>
+      <c r="M250" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>375</v>
+      </c>
+      <c r="D251" t="s">
+        <v>356</v>
+      </c>
+      <c r="G251" t="s">
+        <v>33</v>
+      </c>
+      <c r="I251" t="s">
+        <v>283</v>
+      </c>
+      <c r="M251" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>375</v>
+      </c>
+      <c r="D252" t="s">
+        <v>356</v>
+      </c>
+      <c r="G252" t="s">
+        <v>363</v>
+      </c>
+      <c r="I252" t="s">
+        <v>362</v>
+      </c>
+      <c r="M252" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>375</v>
+      </c>
+      <c r="D253" t="s">
+        <v>356</v>
+      </c>
+      <c r="G253" t="s">
+        <v>364</v>
+      </c>
+      <c r="I253" t="s">
+        <v>362</v>
+      </c>
+      <c r="M253" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>375</v>
+      </c>
+      <c r="D254" t="s">
+        <v>356</v>
+      </c>
+      <c r="G254" t="s">
+        <v>365</v>
+      </c>
+      <c r="I254" t="s">
+        <v>362</v>
+      </c>
+      <c r="M254" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>375</v>
+      </c>
+      <c r="D255" t="s">
+        <v>356</v>
+      </c>
+      <c r="G255" t="s">
+        <v>366</v>
+      </c>
+      <c r="I255" t="s">
+        <v>362</v>
+      </c>
+      <c r="M255" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>375</v>
+      </c>
+      <c r="D256" t="s">
+        <v>356</v>
+      </c>
+      <c r="G256" t="s">
+        <v>367</v>
+      </c>
+      <c r="I256" t="s">
+        <v>362</v>
+      </c>
+      <c r="M256" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>375</v>
+      </c>
+      <c r="D257" t="s">
+        <v>356</v>
+      </c>
+      <c r="G257" t="s">
+        <v>368</v>
+      </c>
+      <c r="I257" t="s">
+        <v>362</v>
+      </c>
+      <c r="M257" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>375</v>
+      </c>
+      <c r="D258" t="s">
+        <v>356</v>
+      </c>
+      <c r="G258" t="s">
+        <v>360</v>
+      </c>
+      <c r="I258" t="s">
+        <v>283</v>
+      </c>
+      <c r="M258" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="I2:I258" xr:uid="{CE298ED2-7571-4AA8-84C7-4930DF6D62E1}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/iS3_DataManager/iS3_DataManager/Standard/Environment.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Environment.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAE4B9A-62B2-4F08-9B32-C4F0784039E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC83363F-86FE-4240-BF0C-F096FB62C137}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="232">
   <si>
     <t>PROJ_ID</t>
   </si>
@@ -614,18 +615,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MONG_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>监测组名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MONG_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>监测组类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,10 +628,6 @@
   </si>
   <si>
     <t>检测项目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MONG_REFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -781,10 +770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>监测读书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOND_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -852,6 +837,38 @@
   </si>
   <si>
     <t>PlanFile</t>
+  </si>
+  <si>
+    <t>监测读数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>MonGroupType</t>
+  </si>
+  <si>
+    <t>MonPointIDs</t>
+  </si>
+  <si>
+    <t>MonProjectID</t>
+  </si>
+  <si>
+    <t>RefSpecifications</t>
+  </si>
+  <si>
+    <t>PerInfoIDs</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>MONG_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1213,18 +1230,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N131"/>
+  <dimension ref="A2:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -1256,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -1279,7 +1296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -1299,7 +1316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -1319,7 +1336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -1339,7 +1356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -1359,7 +1376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -1379,7 +1396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -1399,7 +1416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -1422,7 +1439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -1442,7 +1459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -1459,7 +1476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -1476,7 +1493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -1493,7 +1510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1510,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -1527,7 +1544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -1547,7 +1564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -1564,7 +1581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -1581,7 +1598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -1598,7 +1615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -1615,7 +1632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -1632,7 +1649,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -1652,7 +1669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -1669,7 +1686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -1686,7 +1703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -1703,7 +1720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -1720,7 +1737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -1737,7 +1754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -1754,7 +1771,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -1771,7 +1788,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -1791,7 +1808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -1808,7 +1825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -1825,7 +1842,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -1842,7 +1859,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -1859,7 +1876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -1876,7 +1893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -1893,7 +1910,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -1910,7 +1927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -1927,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -1944,7 +1961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -1964,7 +1981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -1981,7 +1998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -1998,7 +2015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -2015,7 +2032,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -2032,7 +2049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -2049,7 +2066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -2066,7 +2083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -2083,7 +2100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -2100,7 +2117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -2120,7 +2137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -2137,7 +2154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -2154,7 +2171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -2171,7 +2188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -2188,7 +2205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -2205,7 +2222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -2222,7 +2239,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -2242,7 +2259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -2259,7 +2276,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -2276,7 +2293,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -2293,7 +2310,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -2310,7 +2327,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -2327,7 +2344,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -2344,7 +2361,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -2364,7 +2381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -2381,7 +2398,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2398,7 +2415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -2415,7 +2432,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>131</v>
       </c>
@@ -2432,7 +2449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>131</v>
       </c>
@@ -2449,7 +2466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -2469,7 +2486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -2486,7 +2503,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -2503,7 +2520,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>131</v>
       </c>
@@ -2520,7 +2537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -2537,7 +2554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -2557,7 +2574,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>131</v>
       </c>
@@ -2574,7 +2591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>131</v>
       </c>
@@ -2591,7 +2608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>131</v>
       </c>
@@ -2608,7 +2625,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>131</v>
       </c>
@@ -2625,7 +2642,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>131</v>
       </c>
@@ -2642,7 +2659,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>131</v>
       </c>
@@ -2659,7 +2676,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>131</v>
       </c>
@@ -2676,7 +2693,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -2693,7 +2710,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -2710,7 +2727,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -2740,7 +2757,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -2763,7 +2780,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>133</v>
       </c>
@@ -2787,7 +2804,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -2811,7 +2828,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>133</v>
       </c>
@@ -2835,7 +2852,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -2859,7 +2876,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>133</v>
       </c>
@@ -2883,7 +2900,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -2907,7 +2924,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="15" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>133</v>
       </c>
@@ -2933,7 +2950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>133</v>
       </c>
@@ -2956,7 +2973,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>133</v>
       </c>
@@ -2976,7 +2993,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>133</v>
       </c>
@@ -2996,7 +3013,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>133</v>
       </c>
@@ -3016,7 +3033,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>133</v>
       </c>
@@ -3027,7 +3044,7 @@
         <v>167</v>
       </c>
       <c r="G98" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
@@ -3035,31 +3052,25 @@
       <c r="I98" t="s">
         <v>7</v>
       </c>
-      <c r="M98" t="s">
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>133</v>
+      </c>
+      <c r="G99" t="s">
+        <v>223</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>7</v>
+      </c>
+      <c r="M99" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>133</v>
-      </c>
-      <c r="D99" t="s">
-        <v>166</v>
-      </c>
-      <c r="G99" t="s">
-        <v>170</v>
-      </c>
-      <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="s">
-        <v>7</v>
-      </c>
-      <c r="M99" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -3067,7 +3078,7 @@
         <v>166</v>
       </c>
       <c r="G100" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3076,10 +3087,10 @@
         <v>7</v>
       </c>
       <c r="M100" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>133</v>
       </c>
@@ -3087,7 +3098,7 @@
         <v>166</v>
       </c>
       <c r="G101" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -3096,10 +3107,10 @@
         <v>7</v>
       </c>
       <c r="M101" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>133</v>
       </c>
@@ -3107,7 +3118,7 @@
         <v>166</v>
       </c>
       <c r="G102" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -3116,13 +3127,10 @@
         <v>7</v>
       </c>
       <c r="M102" t="s">
-        <v>177</v>
-      </c>
-      <c r="N102" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>133</v>
       </c>
@@ -3130,585 +3138,659 @@
         <v>166</v>
       </c>
       <c r="G103" t="s">
+        <v>227</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" t="s">
+        <v>166</v>
+      </c>
+      <c r="G104" t="s">
+        <v>228</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>7</v>
+      </c>
+      <c r="M104" t="s">
+        <v>174</v>
+      </c>
+      <c r="N104" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" t="s">
+        <v>166</v>
+      </c>
+      <c r="G105" t="s">
+        <v>229</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" t="s">
+        <v>166</v>
+      </c>
+      <c r="G106" t="s">
+        <v>230</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+      <c r="D107" t="s">
+        <v>166</v>
+      </c>
+      <c r="G107" t="s">
+        <v>176</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>7</v>
+      </c>
+      <c r="M107" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>133</v>
+      </c>
+      <c r="D108" t="s">
+        <v>178</v>
+      </c>
+      <c r="F108" t="s">
         <v>179</v>
       </c>
-      <c r="H103" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" t="s">
-        <v>7</v>
-      </c>
-      <c r="M103" t="s">
+      <c r="G108" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>133</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>7</v>
+      </c>
+      <c r="M108" t="s">
         <v>181</v>
       </c>
-      <c r="F104" t="s">
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" t="s">
+        <v>178</v>
+      </c>
+      <c r="G109" t="s">
+        <v>168</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>7</v>
+      </c>
+      <c r="M109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110" t="s">
+        <v>178</v>
+      </c>
+      <c r="G110" t="s">
         <v>182</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>7</v>
+      </c>
+      <c r="M110" t="s">
         <v>183</v>
       </c>
-      <c r="H104" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" t="s">
-        <v>7</v>
-      </c>
-      <c r="M104" t="s">
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" t="s">
+        <v>178</v>
+      </c>
+      <c r="G111" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>7</v>
+      </c>
+      <c r="M111" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>133</v>
-      </c>
-      <c r="D105" t="s">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" t="s">
+        <v>178</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>7</v>
+      </c>
+      <c r="M112" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>133</v>
+      </c>
+      <c r="D113" t="s">
+        <v>178</v>
+      </c>
+      <c r="G113" t="s">
+        <v>186</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>7</v>
+      </c>
+      <c r="M113" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>133</v>
+      </c>
+      <c r="D114" t="s">
+        <v>178</v>
+      </c>
+      <c r="G114" t="s">
+        <v>188</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>7</v>
+      </c>
+      <c r="M114" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" t="s">
+        <v>178</v>
+      </c>
+      <c r="G115" t="s">
+        <v>190</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>7</v>
+      </c>
+      <c r="M115" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116" t="s">
+        <v>178</v>
+      </c>
+      <c r="G116" t="s">
+        <v>192</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>7</v>
+      </c>
+      <c r="M116" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>133</v>
+      </c>
+      <c r="D117" t="s">
+        <v>178</v>
+      </c>
+      <c r="G117" t="s">
+        <v>193</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>7</v>
+      </c>
+      <c r="M117" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>133</v>
+      </c>
+      <c r="D118" t="s">
+        <v>178</v>
+      </c>
+      <c r="G118" t="s">
+        <v>194</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>7</v>
+      </c>
+      <c r="M118" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>133</v>
+      </c>
+      <c r="D119" t="s">
+        <v>195</v>
+      </c>
+      <c r="F119" t="s">
+        <v>196</v>
+      </c>
+      <c r="G119" t="s">
+        <v>197</v>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>7</v>
+      </c>
+      <c r="M119" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" t="s">
+        <v>195</v>
+      </c>
+      <c r="G120" t="s">
+        <v>180</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>7</v>
+      </c>
+      <c r="M120" t="s">
         <v>181</v>
       </c>
-      <c r="G105" t="s">
-        <v>168</v>
-      </c>
-      <c r="H105" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
-        <v>7</v>
-      </c>
-      <c r="M105" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>133</v>
-      </c>
-      <c r="D106" t="s">
-        <v>181</v>
-      </c>
-      <c r="G106" t="s">
-        <v>185</v>
-      </c>
-      <c r="H106" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" t="s">
-        <v>7</v>
-      </c>
-      <c r="M106" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>133</v>
-      </c>
-      <c r="D107" t="s">
-        <v>181</v>
-      </c>
-      <c r="G107" t="s">
-        <v>30</v>
-      </c>
-      <c r="H107" t="b">
-        <v>0</v>
-      </c>
-      <c r="I107" t="s">
-        <v>7</v>
-      </c>
-      <c r="M107" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>133</v>
-      </c>
-      <c r="D108" t="s">
-        <v>181</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-      <c r="M108" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>133</v>
-      </c>
-      <c r="D109" t="s">
-        <v>181</v>
-      </c>
-      <c r="G109" t="s">
-        <v>189</v>
-      </c>
-      <c r="H109" t="b">
-        <v>0</v>
-      </c>
-      <c r="I109" t="s">
-        <v>7</v>
-      </c>
-      <c r="M109" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>133</v>
-      </c>
-      <c r="D110" t="s">
-        <v>181</v>
-      </c>
-      <c r="G110" t="s">
-        <v>191</v>
-      </c>
-      <c r="H110" t="b">
-        <v>0</v>
-      </c>
-      <c r="I110" t="s">
-        <v>7</v>
-      </c>
-      <c r="M110" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>133</v>
-      </c>
-      <c r="D111" t="s">
-        <v>181</v>
-      </c>
-      <c r="G111" t="s">
-        <v>193</v>
-      </c>
-      <c r="H111" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" t="s">
-        <v>7</v>
-      </c>
-      <c r="M111" t="s">
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="D121" t="s">
+        <v>195</v>
+      </c>
+      <c r="G121" t="s">
+        <v>199</v>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>7</v>
+      </c>
+      <c r="M121" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" t="s">
+        <v>195</v>
+      </c>
+      <c r="G122" t="s">
+        <v>203</v>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>7</v>
+      </c>
+      <c r="M122" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" t="s">
+        <v>195</v>
+      </c>
+      <c r="G123" t="s">
+        <v>201</v>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>7</v>
+      </c>
+      <c r="M123" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" t="s">
+        <v>195</v>
+      </c>
+      <c r="G124" t="s">
+        <v>204</v>
+      </c>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>27</v>
+      </c>
+      <c r="M124" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>133</v>
+      </c>
+      <c r="D125" t="s">
+        <v>195</v>
+      </c>
+      <c r="G125" t="s">
+        <v>206</v>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>27</v>
+      </c>
+      <c r="M125" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" t="s">
+        <v>195</v>
+      </c>
+      <c r="G126" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>7</v>
+      </c>
+      <c r="M126" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127" t="s">
+        <v>209</v>
+      </c>
+      <c r="F127" t="s">
+        <v>210</v>
+      </c>
+      <c r="G127" t="s">
+        <v>172</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>7</v>
+      </c>
+      <c r="M127" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" t="s">
+        <v>209</v>
+      </c>
+      <c r="G128" t="s">
+        <v>212</v>
+      </c>
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>7</v>
+      </c>
+      <c r="M128" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" t="s">
+        <v>209</v>
+      </c>
+      <c r="G129" t="s">
+        <v>214</v>
+      </c>
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>7</v>
+      </c>
+      <c r="M129" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130" t="s">
+        <v>209</v>
+      </c>
+      <c r="G130" t="s">
+        <v>216</v>
+      </c>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>7</v>
+      </c>
+      <c r="M130" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" t="s">
+        <v>209</v>
+      </c>
+      <c r="G131" t="s">
+        <v>218</v>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>7</v>
+      </c>
+      <c r="M131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132" t="s">
+        <v>209</v>
+      </c>
+      <c r="G132" t="s">
+        <v>219</v>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>7</v>
+      </c>
+      <c r="M132" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="D133" t="s">
+        <v>209</v>
+      </c>
+      <c r="G133" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>133</v>
-      </c>
-      <c r="D112" t="s">
-        <v>181</v>
-      </c>
-      <c r="G112" t="s">
-        <v>195</v>
-      </c>
-      <c r="H112" t="b">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
-        <v>7</v>
-      </c>
-      <c r="M112" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>133</v>
-      </c>
-      <c r="D113" t="s">
-        <v>181</v>
-      </c>
-      <c r="G113" t="s">
-        <v>196</v>
-      </c>
-      <c r="H113" t="b">
-        <v>0</v>
-      </c>
-      <c r="I113" t="s">
-        <v>7</v>
-      </c>
-      <c r="M113" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>133</v>
-      </c>
-      <c r="D114" t="s">
-        <v>181</v>
-      </c>
-      <c r="G114" t="s">
-        <v>197</v>
-      </c>
-      <c r="H114" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" t="s">
-        <v>7</v>
-      </c>
-      <c r="M114" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>133</v>
-      </c>
-      <c r="D115" t="s">
-        <v>198</v>
-      </c>
-      <c r="F115" t="s">
-        <v>199</v>
-      </c>
-      <c r="G115" t="s">
-        <v>200</v>
-      </c>
-      <c r="H115" t="b">
-        <v>1</v>
-      </c>
-      <c r="I115" t="s">
-        <v>7</v>
-      </c>
-      <c r="M115" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>133</v>
-      </c>
-      <c r="D116" t="s">
-        <v>198</v>
-      </c>
-      <c r="G116" t="s">
-        <v>183</v>
-      </c>
-      <c r="H116" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" t="s">
-        <v>7</v>
-      </c>
-      <c r="M116" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>133</v>
-      </c>
-      <c r="D117" t="s">
-        <v>198</v>
-      </c>
-      <c r="G117" t="s">
-        <v>202</v>
-      </c>
-      <c r="H117" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" t="s">
-        <v>7</v>
-      </c>
-      <c r="M117" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>133</v>
-      </c>
-      <c r="D118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G118" t="s">
-        <v>204</v>
-      </c>
-      <c r="H118" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" t="s">
-        <v>7</v>
-      </c>
-      <c r="M118" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>133</v>
-      </c>
-      <c r="D119" t="s">
-        <v>198</v>
-      </c>
-      <c r="G119" t="s">
-        <v>206</v>
-      </c>
-      <c r="H119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" t="s">
-        <v>7</v>
-      </c>
-      <c r="M119" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>133</v>
-      </c>
-      <c r="D120" t="s">
-        <v>198</v>
-      </c>
-      <c r="G120" t="s">
-        <v>208</v>
-      </c>
-      <c r="H120" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" t="s">
-        <v>27</v>
-      </c>
-      <c r="M120" t="s">
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>7</v>
+      </c>
+      <c r="M133" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="D134" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>133</v>
-      </c>
-      <c r="D121" t="s">
-        <v>198</v>
-      </c>
-      <c r="G121" t="s">
-        <v>210</v>
-      </c>
-      <c r="H121" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" t="s">
-        <v>27</v>
-      </c>
-      <c r="M121" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>133</v>
-      </c>
-      <c r="D122" t="s">
-        <v>198</v>
-      </c>
-      <c r="G122" t="s">
-        <v>2</v>
-      </c>
-      <c r="H122" t="b">
-        <v>0</v>
-      </c>
-      <c r="I122" t="s">
-        <v>7</v>
-      </c>
-      <c r="M122" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>133</v>
-      </c>
-      <c r="D123" t="s">
-        <v>213</v>
-      </c>
-      <c r="F123" t="s">
-        <v>214</v>
-      </c>
-      <c r="G123" t="s">
-        <v>174</v>
-      </c>
-      <c r="H123" t="b">
-        <v>1</v>
-      </c>
-      <c r="I123" t="s">
-        <v>7</v>
-      </c>
-      <c r="M123" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>133</v>
-      </c>
-      <c r="D124" t="s">
-        <v>213</v>
-      </c>
-      <c r="G124" t="s">
-        <v>216</v>
-      </c>
-      <c r="H124" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" t="s">
-        <v>7</v>
-      </c>
-      <c r="M124" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>133</v>
-      </c>
-      <c r="D125" t="s">
-        <v>213</v>
-      </c>
-      <c r="G125" t="s">
-        <v>218</v>
-      </c>
-      <c r="H125" t="b">
-        <v>0</v>
-      </c>
-      <c r="I125" t="s">
-        <v>7</v>
-      </c>
-      <c r="M125" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>133</v>
-      </c>
-      <c r="D126" t="s">
-        <v>213</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="G134" t="s">
         <v>220</v>
       </c>
-      <c r="H126" t="b">
-        <v>0</v>
-      </c>
-      <c r="I126" t="s">
-        <v>7</v>
-      </c>
-      <c r="M126" t="s">
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>7</v>
+      </c>
+      <c r="M134" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>133</v>
+      </c>
+      <c r="D135" t="s">
+        <v>209</v>
+      </c>
+      <c r="G135" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>133</v>
-      </c>
-      <c r="D127" t="s">
-        <v>213</v>
-      </c>
-      <c r="G127" t="s">
-        <v>222</v>
-      </c>
-      <c r="H127" t="b">
-        <v>0</v>
-      </c>
-      <c r="I127" t="s">
-        <v>7</v>
-      </c>
-      <c r="M127" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>133</v>
-      </c>
-      <c r="D128" t="s">
-        <v>213</v>
-      </c>
-      <c r="G128" t="s">
-        <v>223</v>
-      </c>
-      <c r="H128" t="b">
-        <v>0</v>
-      </c>
-      <c r="I128" t="s">
-        <v>7</v>
-      </c>
-      <c r="M128" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>133</v>
-      </c>
-      <c r="D129" t="s">
-        <v>213</v>
-      </c>
-      <c r="G129" t="s">
-        <v>197</v>
-      </c>
-      <c r="H129" t="b">
-        <v>0</v>
-      </c>
-      <c r="I129" t="s">
-        <v>7</v>
-      </c>
-      <c r="M129" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>133</v>
-      </c>
-      <c r="D130" t="s">
-        <v>213</v>
-      </c>
-      <c r="G130" t="s">
-        <v>224</v>
-      </c>
-      <c r="H130" t="b">
-        <v>0</v>
-      </c>
-      <c r="I130" t="s">
-        <v>7</v>
-      </c>
-      <c r="M130" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>133</v>
-      </c>
-      <c r="D131" t="s">
-        <v>213</v>
-      </c>
-      <c r="G131" t="s">
-        <v>225</v>
-      </c>
-      <c r="H131" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" t="s">
-        <v>7</v>
-      </c>
-      <c r="M131" t="s">
-        <v>225</v>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>7</v>
+      </c>
+      <c r="M135" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3726,7 +3808,7 @@
       <selection activeCell="A2" sqref="A2:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iS3_DataManager/iS3_DataManager/Standard/Environment.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Environment.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC83363F-86FE-4240-BF0C-F096FB62C137}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DEC6B8-CB09-4511-9992-093FAC09D2C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="233">
   <si>
     <t>PROJ_ID</t>
   </si>
@@ -868,6 +867,10 @@
   </si>
   <si>
     <t>MONG_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,18 +1233,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N135"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="15.46484375" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -1273,7 +1281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -1296,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -1312,11 +1320,14 @@
       <c r="I4" t="s">
         <v>39</v>
       </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -1332,11 +1343,14 @@
       <c r="I5" t="s">
         <v>39</v>
       </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
       <c r="M5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -1352,11 +1366,14 @@
       <c r="I6" t="s">
         <v>39</v>
       </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -1372,11 +1389,14 @@
       <c r="I7" t="s">
         <v>39</v>
       </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
       <c r="M7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -1392,11 +1412,14 @@
       <c r="I8" t="s">
         <v>39</v>
       </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
       <c r="M8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -1412,11 +1435,14 @@
       <c r="I9" t="s">
         <v>39</v>
       </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
       <c r="M9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -1439,7 +1465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -1452,14 +1478,20 @@
       <c r="G11" t="s">
         <v>0</v>
       </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
       <c r="I11" t="s">
         <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>232</v>
       </c>
       <c r="M11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -1469,14 +1501,20 @@
       <c r="G12" t="s">
         <v>30</v>
       </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
       <c r="I12" t="s">
         <v>40</v>
       </c>
+      <c r="K12" t="s">
+        <v>232</v>
+      </c>
       <c r="M12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -1486,14 +1524,20 @@
       <c r="G13" t="s">
         <v>31</v>
       </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
       <c r="I13" t="s">
         <v>5</v>
       </c>
+      <c r="K13" t="s">
+        <v>232</v>
+      </c>
       <c r="M13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -1503,14 +1547,20 @@
       <c r="G14" t="s">
         <v>32</v>
       </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
       <c r="I14" t="s">
         <v>40</v>
       </c>
+      <c r="K14" t="s">
+        <v>232</v>
+      </c>
       <c r="M14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1520,14 +1570,20 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
       <c r="I15" t="s">
         <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>232</v>
       </c>
       <c r="M15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -1537,14 +1593,20 @@
       <c r="G16" t="s">
         <v>2</v>
       </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
       <c r="I16" t="s">
         <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>232</v>
       </c>
       <c r="M16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -1557,14 +1619,20 @@
       <c r="G17" t="s">
         <v>0</v>
       </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
       <c r="I17" t="s">
         <v>39</v>
+      </c>
+      <c r="K17" t="s">
+        <v>232</v>
       </c>
       <c r="M17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -1574,14 +1642,20 @@
       <c r="G18" t="s">
         <v>30</v>
       </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
       <c r="I18" t="s">
         <v>5</v>
       </c>
+      <c r="K18" t="s">
+        <v>232</v>
+      </c>
       <c r="M18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -1591,14 +1665,20 @@
       <c r="G19" t="s">
         <v>31</v>
       </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
       <c r="I19" t="s">
         <v>5</v>
       </c>
+      <c r="K19" t="s">
+        <v>232</v>
+      </c>
       <c r="M19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -1608,14 +1688,20 @@
       <c r="G20" t="s">
         <v>43</v>
       </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
       <c r="I20" t="s">
         <v>5</v>
       </c>
+      <c r="K20" t="s">
+        <v>232</v>
+      </c>
       <c r="M20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -1625,14 +1711,20 @@
       <c r="G21" t="s">
         <v>44</v>
       </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
       <c r="I21" t="s">
         <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>232</v>
       </c>
       <c r="M21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -1642,14 +1734,20 @@
       <c r="G22" t="s">
         <v>2</v>
       </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
       <c r="I22" t="s">
         <v>39</v>
+      </c>
+      <c r="K22" t="s">
+        <v>232</v>
       </c>
       <c r="M22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -1662,14 +1760,20 @@
       <c r="G23" t="s">
         <v>0</v>
       </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
       <c r="I23" t="s">
         <v>39</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -1679,14 +1783,20 @@
       <c r="G24" t="s">
         <v>47</v>
       </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
       <c r="I24" t="s">
         <v>39</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
       </c>
       <c r="M24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -1696,14 +1806,20 @@
       <c r="G25" t="s">
         <v>30</v>
       </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
       <c r="I25" t="s">
         <v>5</v>
       </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
       <c r="M25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -1713,14 +1829,20 @@
       <c r="G26" t="s">
         <v>31</v>
       </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
       <c r="I26" t="s">
         <v>5</v>
       </c>
+      <c r="K26" t="s">
+        <v>232</v>
+      </c>
       <c r="M26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -1730,14 +1852,20 @@
       <c r="G27" t="s">
         <v>48</v>
       </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
       <c r="I27" t="s">
         <v>5</v>
       </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
       <c r="M27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -1747,14 +1875,20 @@
       <c r="G28" t="s">
         <v>49</v>
       </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
       <c r="I28" t="s">
         <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>232</v>
       </c>
       <c r="M28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -1764,14 +1898,20 @@
       <c r="G29" t="s">
         <v>50</v>
       </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
       <c r="I29" t="s">
         <v>5</v>
       </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
       <c r="M29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -1781,14 +1921,20 @@
       <c r="G30" t="s">
         <v>2</v>
       </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
       <c r="I30" t="s">
         <v>39</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
       </c>
       <c r="M30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -1801,14 +1947,20 @@
       <c r="G31" t="s">
         <v>0</v>
       </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
       <c r="I31" t="s">
         <v>39</v>
+      </c>
+      <c r="K31" t="s">
+        <v>232</v>
       </c>
       <c r="M31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -1818,14 +1970,20 @@
       <c r="G32" t="s">
         <v>57</v>
       </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
       <c r="I32" t="s">
         <v>39</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
       </c>
       <c r="M32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -1835,14 +1993,20 @@
       <c r="G33" t="s">
         <v>58</v>
       </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
       <c r="I33" t="s">
         <v>39</v>
+      </c>
+      <c r="K33" t="s">
+        <v>232</v>
       </c>
       <c r="M33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -1852,14 +2016,20 @@
       <c r="G34" t="s">
         <v>59</v>
       </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
       <c r="I34" t="s">
         <v>39</v>
+      </c>
+      <c r="K34" t="s">
+        <v>232</v>
       </c>
       <c r="M34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -1869,14 +2039,20 @@
       <c r="G35" t="s">
         <v>30</v>
       </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
       <c r="I35" t="s">
         <v>40</v>
       </c>
+      <c r="K35" t="s">
+        <v>232</v>
+      </c>
       <c r="M35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -1886,14 +2062,20 @@
       <c r="G36" t="s">
         <v>31</v>
       </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
       <c r="I36" t="s">
         <v>40</v>
       </c>
+      <c r="K36" t="s">
+        <v>232</v>
+      </c>
       <c r="M36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -1903,14 +2085,20 @@
       <c r="G37" t="s">
         <v>60</v>
       </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
       <c r="I37" t="s">
         <v>40</v>
       </c>
+      <c r="K37" t="s">
+        <v>232</v>
+      </c>
       <c r="M37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -1920,14 +2108,20 @@
       <c r="G38" t="s">
         <v>61</v>
       </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
       <c r="I38" t="s">
         <v>40</v>
       </c>
+      <c r="K38" t="s">
+        <v>232</v>
+      </c>
       <c r="M38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -1937,14 +2131,20 @@
       <c r="G39" t="s">
         <v>62</v>
       </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
       <c r="I39" t="s">
         <v>39</v>
+      </c>
+      <c r="K39" t="s">
+        <v>232</v>
       </c>
       <c r="M39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -1954,14 +2154,20 @@
       <c r="G40" t="s">
         <v>2</v>
       </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
       <c r="I40" t="s">
         <v>39</v>
+      </c>
+      <c r="K40" t="s">
+        <v>232</v>
       </c>
       <c r="M40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -1974,14 +2180,20 @@
       <c r="G41" t="s">
         <v>0</v>
       </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
       <c r="I41" t="s">
         <v>39</v>
+      </c>
+      <c r="K41" t="s">
+        <v>232</v>
       </c>
       <c r="M41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -1991,14 +2203,20 @@
       <c r="G42" t="s">
         <v>74</v>
       </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
       <c r="I42" t="s">
         <v>39</v>
+      </c>
+      <c r="K42" t="s">
+        <v>232</v>
       </c>
       <c r="M42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -2008,14 +2226,20 @@
       <c r="G43" t="s">
         <v>75</v>
       </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
       <c r="I43" t="s">
         <v>5</v>
       </c>
+      <c r="K43" t="s">
+        <v>232</v>
+      </c>
       <c r="M43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -2025,14 +2249,20 @@
       <c r="G44" t="s">
         <v>76</v>
       </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
       <c r="I44" t="s">
         <v>39</v>
+      </c>
+      <c r="K44" t="s">
+        <v>232</v>
       </c>
       <c r="M44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -2042,14 +2272,20 @@
       <c r="G45" t="s">
         <v>77</v>
       </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
       <c r="I45" t="s">
         <v>39</v>
+      </c>
+      <c r="K45" t="s">
+        <v>232</v>
       </c>
       <c r="M45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -2059,14 +2295,20 @@
       <c r="G46" t="s">
         <v>30</v>
       </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
       <c r="I46" t="s">
         <v>5</v>
       </c>
+      <c r="K46" t="s">
+        <v>232</v>
+      </c>
       <c r="M46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -2076,14 +2318,20 @@
       <c r="G47" t="s">
         <v>31</v>
       </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
       <c r="I47" t="s">
         <v>5</v>
       </c>
+      <c r="K47" t="s">
+        <v>232</v>
+      </c>
       <c r="M47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -2093,14 +2341,20 @@
       <c r="G48" t="s">
         <v>78</v>
       </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
       <c r="I48" t="s">
         <v>39</v>
+      </c>
+      <c r="K48" t="s">
+        <v>232</v>
       </c>
       <c r="M48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -2110,14 +2364,20 @@
       <c r="G49" t="s">
         <v>2</v>
       </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
       <c r="I49" t="s">
         <v>39</v>
+      </c>
+      <c r="K49" t="s">
+        <v>232</v>
       </c>
       <c r="M49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -2130,14 +2390,20 @@
       <c r="G50" t="s">
         <v>0</v>
       </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
       <c r="I50" t="s">
         <v>39</v>
+      </c>
+      <c r="K50" t="s">
+        <v>232</v>
       </c>
       <c r="M50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -2147,14 +2413,20 @@
       <c r="G51" t="s">
         <v>80</v>
       </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
       <c r="I51" t="s">
         <v>39</v>
+      </c>
+      <c r="K51" t="s">
+        <v>232</v>
       </c>
       <c r="M51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -2164,14 +2436,20 @@
       <c r="G52" t="s">
         <v>30</v>
       </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
       <c r="I52" t="s">
         <v>39</v>
+      </c>
+      <c r="K52" t="s">
+        <v>232</v>
       </c>
       <c r="M52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -2181,14 +2459,20 @@
       <c r="G53" t="s">
         <v>31</v>
       </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
       <c r="I53" t="s">
         <v>39</v>
+      </c>
+      <c r="K53" t="s">
+        <v>232</v>
       </c>
       <c r="M53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -2198,14 +2482,20 @@
       <c r="G54" t="s">
         <v>81</v>
       </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
       <c r="I54" t="s">
         <v>39</v>
+      </c>
+      <c r="K54" t="s">
+        <v>232</v>
       </c>
       <c r="M54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -2215,14 +2505,20 @@
       <c r="G55" t="s">
         <v>82</v>
       </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
       <c r="I55" t="s">
         <v>39</v>
+      </c>
+      <c r="K55" t="s">
+        <v>232</v>
       </c>
       <c r="M55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -2232,14 +2528,20 @@
       <c r="G56" t="s">
         <v>2</v>
       </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
       <c r="I56" t="s">
         <v>39</v>
+      </c>
+      <c r="K56" t="s">
+        <v>232</v>
       </c>
       <c r="M56" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -2252,14 +2554,20 @@
       <c r="G57" t="s">
         <v>0</v>
       </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
       <c r="I57" t="s">
         <v>39</v>
+      </c>
+      <c r="K57" t="s">
+        <v>232</v>
       </c>
       <c r="M57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -2269,14 +2577,20 @@
       <c r="G58" t="s">
         <v>90</v>
       </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
       <c r="I58" t="s">
         <v>39</v>
+      </c>
+      <c r="K58" t="s">
+        <v>232</v>
       </c>
       <c r="M58" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -2286,14 +2600,20 @@
       <c r="G59" t="s">
         <v>91</v>
       </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
       <c r="I59" t="s">
         <v>39</v>
+      </c>
+      <c r="K59" t="s">
+        <v>232</v>
       </c>
       <c r="M59" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -2303,14 +2623,20 @@
       <c r="G60" t="s">
         <v>92</v>
       </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
       <c r="I60" t="s">
         <v>39</v>
+      </c>
+      <c r="K60" t="s">
+        <v>232</v>
       </c>
       <c r="M60" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -2320,14 +2646,20 @@
       <c r="G61" t="s">
         <v>93</v>
       </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
       <c r="I61" t="s">
         <v>96</v>
       </c>
+      <c r="K61" t="s">
+        <v>232</v>
+      </c>
       <c r="M61" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -2337,14 +2669,20 @@
       <c r="G62" t="s">
         <v>94</v>
       </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
       <c r="I62" t="s">
         <v>95</v>
       </c>
+      <c r="K62" t="s">
+        <v>232</v>
+      </c>
       <c r="M62" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -2354,14 +2692,20 @@
       <c r="G63" t="s">
         <v>2</v>
       </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
       <c r="I63" t="s">
         <v>39</v>
+      </c>
+      <c r="K63" t="s">
+        <v>232</v>
       </c>
       <c r="M63" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -2374,14 +2718,20 @@
       <c r="G64" t="s">
         <v>0</v>
       </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
       <c r="I64" t="s">
         <v>39</v>
+      </c>
+      <c r="K64" t="s">
+        <v>232</v>
       </c>
       <c r="M64" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -2391,14 +2741,20 @@
       <c r="G65" t="s">
         <v>102</v>
       </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
       <c r="I65" t="s">
         <v>39</v>
+      </c>
+      <c r="K65" t="s">
+        <v>232</v>
       </c>
       <c r="M65" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -2408,14 +2764,20 @@
       <c r="G66" t="s">
         <v>103</v>
       </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
       <c r="I66" t="s">
         <v>5</v>
       </c>
+      <c r="K66" t="s">
+        <v>232</v>
+      </c>
       <c r="M66" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -2425,14 +2787,20 @@
       <c r="G67" t="s">
         <v>104</v>
       </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
       <c r="I67" t="s">
         <v>5</v>
       </c>
+      <c r="K67" t="s">
+        <v>232</v>
+      </c>
       <c r="M67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>131</v>
       </c>
@@ -2442,14 +2810,20 @@
       <c r="G68" t="s">
         <v>78</v>
       </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
       <c r="I68" t="s">
         <v>39</v>
+      </c>
+      <c r="K68" t="s">
+        <v>232</v>
       </c>
       <c r="M68" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>131</v>
       </c>
@@ -2459,14 +2833,20 @@
       <c r="G69" t="s">
         <v>2</v>
       </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
       <c r="I69" t="s">
         <v>39</v>
+      </c>
+      <c r="K69" t="s">
+        <v>232</v>
       </c>
       <c r="M69" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -2479,14 +2859,20 @@
       <c r="G70" t="s">
         <v>0</v>
       </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
       <c r="I70" t="s">
         <v>39</v>
+      </c>
+      <c r="K70" t="s">
+        <v>232</v>
       </c>
       <c r="M70" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -2496,14 +2882,20 @@
       <c r="G71" t="s">
         <v>110</v>
       </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
       <c r="I71" t="s">
         <v>39</v>
+      </c>
+      <c r="K71" t="s">
+        <v>232</v>
       </c>
       <c r="M71" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -2513,14 +2905,20 @@
       <c r="G72" t="s">
         <v>111</v>
       </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
       <c r="I72" t="s">
         <v>39</v>
+      </c>
+      <c r="K72" t="s">
+        <v>232</v>
       </c>
       <c r="M72" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>131</v>
       </c>
@@ -2530,14 +2928,20 @@
       <c r="G73" t="s">
         <v>78</v>
       </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
       <c r="I73" t="s">
         <v>39</v>
+      </c>
+      <c r="K73" t="s">
+        <v>232</v>
       </c>
       <c r="M73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -2547,14 +2951,20 @@
       <c r="G74" t="s">
         <v>2</v>
       </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
       <c r="I74" t="s">
         <v>39</v>
+      </c>
+      <c r="K74" t="s">
+        <v>232</v>
       </c>
       <c r="M74" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -2567,14 +2977,20 @@
       <c r="G75" t="s">
         <v>114</v>
       </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
       <c r="I75" t="s">
         <v>39</v>
+      </c>
+      <c r="K75" t="s">
+        <v>232</v>
       </c>
       <c r="M75" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>131</v>
       </c>
@@ -2584,14 +3000,20 @@
       <c r="G76" t="s">
         <v>10</v>
       </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
       <c r="I76" t="s">
         <v>39</v>
+      </c>
+      <c r="K76" t="s">
+        <v>232</v>
       </c>
       <c r="M76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>131</v>
       </c>
@@ -2601,14 +3023,20 @@
       <c r="G77" t="s">
         <v>4</v>
       </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
       <c r="I77" t="s">
         <v>39</v>
+      </c>
+      <c r="K77" t="s">
+        <v>232</v>
       </c>
       <c r="M77" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>131</v>
       </c>
@@ -2618,14 +3046,20 @@
       <c r="G78" t="s">
         <v>119</v>
       </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
       <c r="I78" t="s">
         <v>118</v>
       </c>
+      <c r="K78" t="s">
+        <v>232</v>
+      </c>
       <c r="M78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>131</v>
       </c>
@@ -2635,14 +3069,20 @@
       <c r="G79" t="s">
         <v>120</v>
       </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
       <c r="I79" t="s">
         <v>118</v>
       </c>
+      <c r="K79" t="s">
+        <v>232</v>
+      </c>
       <c r="M79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>131</v>
       </c>
@@ -2652,14 +3092,20 @@
       <c r="G80" t="s">
         <v>121</v>
       </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
       <c r="I80" t="s">
         <v>118</v>
       </c>
+      <c r="K80" t="s">
+        <v>232</v>
+      </c>
       <c r="M80" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>131</v>
       </c>
@@ -2669,14 +3115,20 @@
       <c r="G81" t="s">
         <v>122</v>
       </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
       <c r="I81" t="s">
         <v>118</v>
       </c>
+      <c r="K81" t="s">
+        <v>232</v>
+      </c>
       <c r="M81" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>131</v>
       </c>
@@ -2686,14 +3138,20 @@
       <c r="G82" t="s">
         <v>123</v>
       </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
       <c r="I82" t="s">
         <v>118</v>
       </c>
+      <c r="K82" t="s">
+        <v>232</v>
+      </c>
       <c r="M82" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -2703,14 +3161,20 @@
       <c r="G83" t="s">
         <v>124</v>
       </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
       <c r="I83" t="s">
         <v>118</v>
       </c>
+      <c r="K83" t="s">
+        <v>232</v>
+      </c>
       <c r="M83" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -2720,14 +3184,20 @@
       <c r="G84" t="s">
         <v>116</v>
       </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
       <c r="I84" t="s">
         <v>39</v>
+      </c>
+      <c r="K84" t="s">
+        <v>232</v>
       </c>
       <c r="M84" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -2750,14 +3220,14 @@
         <v>7</v>
       </c>
       <c r="K85" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -2774,13 +3244,13 @@
         <v>7</v>
       </c>
       <c r="K86" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="M86" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>133</v>
       </c>
@@ -2797,14 +3267,14 @@
         <v>7</v>
       </c>
       <c r="K87" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -2821,14 +3291,14 @@
         <v>7</v>
       </c>
       <c r="K88" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>133</v>
       </c>
@@ -2845,14 +3315,14 @@
         <v>7</v>
       </c>
       <c r="K89" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -2869,14 +3339,14 @@
         <v>7</v>
       </c>
       <c r="K90" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>133</v>
       </c>
@@ -2893,14 +3363,14 @@
         <v>7</v>
       </c>
       <c r="K91" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -2917,14 +3387,14 @@
         <v>7</v>
       </c>
       <c r="K92" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>133</v>
       </c>
@@ -2941,7 +3411,7 @@
         <v>153</v>
       </c>
       <c r="K93" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>154</v>
@@ -2950,7 +3420,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>133</v>
       </c>
@@ -2969,11 +3439,14 @@
       <c r="I94" t="s">
         <v>7</v>
       </c>
+      <c r="K94" t="s">
+        <v>232</v>
+      </c>
       <c r="M94" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>133</v>
       </c>
@@ -2989,11 +3462,14 @@
       <c r="I95" t="s">
         <v>7</v>
       </c>
+      <c r="K95" t="s">
+        <v>232</v>
+      </c>
       <c r="M95" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>133</v>
       </c>
@@ -3009,11 +3485,14 @@
       <c r="I96" t="s">
         <v>7</v>
       </c>
+      <c r="K96" t="s">
+        <v>232</v>
+      </c>
       <c r="M96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>133</v>
       </c>
@@ -3029,11 +3508,14 @@
       <c r="I97" t="s">
         <v>7</v>
       </c>
+      <c r="K97" t="s">
+        <v>232</v>
+      </c>
       <c r="M97" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>133</v>
       </c>
@@ -3052,10 +3534,16 @@
       <c r="I98" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K98" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>133</v>
+      </c>
+      <c r="D99" t="s">
+        <v>166</v>
       </c>
       <c r="G99" t="s">
         <v>223</v>
@@ -3066,11 +3554,14 @@
       <c r="I99" t="s">
         <v>7</v>
       </c>
+      <c r="K99" t="s">
+        <v>232</v>
+      </c>
       <c r="M99" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -3086,11 +3577,14 @@
       <c r="I100" t="s">
         <v>7</v>
       </c>
+      <c r="K100" t="s">
+        <v>232</v>
+      </c>
       <c r="M100" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>133</v>
       </c>
@@ -3106,11 +3600,14 @@
       <c r="I101" t="s">
         <v>7</v>
       </c>
+      <c r="K101" t="s">
+        <v>232</v>
+      </c>
       <c r="M101" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>133</v>
       </c>
@@ -3126,11 +3623,14 @@
       <c r="I102" t="s">
         <v>7</v>
       </c>
+      <c r="K102" t="s">
+        <v>232</v>
+      </c>
       <c r="M102" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>133</v>
       </c>
@@ -3146,8 +3646,11 @@
       <c r="I103" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K103" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -3163,6 +3666,9 @@
       <c r="I104" t="s">
         <v>7</v>
       </c>
+      <c r="K104" t="s">
+        <v>232</v>
+      </c>
       <c r="M104" t="s">
         <v>174</v>
       </c>
@@ -3170,7 +3676,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>133</v>
       </c>
@@ -3186,8 +3692,11 @@
       <c r="I105" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K105" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>133</v>
       </c>
@@ -3203,8 +3712,11 @@
       <c r="I106" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>133</v>
       </c>
@@ -3220,11 +3732,14 @@
       <c r="I107" t="s">
         <v>7</v>
       </c>
+      <c r="K107" t="s">
+        <v>232</v>
+      </c>
       <c r="M107" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>133</v>
       </c>
@@ -3243,11 +3758,14 @@
       <c r="I108" t="s">
         <v>7</v>
       </c>
+      <c r="K108" t="s">
+        <v>232</v>
+      </c>
       <c r="M108" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>133</v>
       </c>
@@ -3263,11 +3781,14 @@
       <c r="I109" t="s">
         <v>7</v>
       </c>
+      <c r="K109" t="s">
+        <v>232</v>
+      </c>
       <c r="M109" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>133</v>
       </c>
@@ -3283,11 +3804,14 @@
       <c r="I110" t="s">
         <v>7</v>
       </c>
+      <c r="K110" t="s">
+        <v>232</v>
+      </c>
       <c r="M110" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>133</v>
       </c>
@@ -3303,11 +3827,14 @@
       <c r="I111" t="s">
         <v>7</v>
       </c>
+      <c r="K111" t="s">
+        <v>232</v>
+      </c>
       <c r="M111" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>133</v>
       </c>
@@ -3323,11 +3850,14 @@
       <c r="I112" t="s">
         <v>7</v>
       </c>
+      <c r="K112" t="s">
+        <v>232</v>
+      </c>
       <c r="M112" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -3343,11 +3873,14 @@
       <c r="I113" t="s">
         <v>7</v>
       </c>
+      <c r="K113" t="s">
+        <v>232</v>
+      </c>
       <c r="M113" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -3363,11 +3896,14 @@
       <c r="I114" t="s">
         <v>7</v>
       </c>
+      <c r="K114" t="s">
+        <v>232</v>
+      </c>
       <c r="M114" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -3383,11 +3919,14 @@
       <c r="I115" t="s">
         <v>7</v>
       </c>
+      <c r="K115" t="s">
+        <v>232</v>
+      </c>
       <c r="M115" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>133</v>
       </c>
@@ -3403,11 +3942,14 @@
       <c r="I116" t="s">
         <v>7</v>
       </c>
+      <c r="K116" t="s">
+        <v>232</v>
+      </c>
       <c r="M116" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -3423,11 +3965,14 @@
       <c r="I117" t="s">
         <v>7</v>
       </c>
+      <c r="K117" t="s">
+        <v>232</v>
+      </c>
       <c r="M117" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -3443,11 +3988,14 @@
       <c r="I118" t="s">
         <v>7</v>
       </c>
+      <c r="K118" t="s">
+        <v>232</v>
+      </c>
       <c r="M118" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -3466,11 +4014,14 @@
       <c r="I119" t="s">
         <v>7</v>
       </c>
+      <c r="K119" t="s">
+        <v>232</v>
+      </c>
       <c r="M119" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -3486,11 +4037,14 @@
       <c r="I120" t="s">
         <v>7</v>
       </c>
+      <c r="K120" t="s">
+        <v>232</v>
+      </c>
       <c r="M120" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -3506,11 +4060,14 @@
       <c r="I121" t="s">
         <v>7</v>
       </c>
+      <c r="K121" t="s">
+        <v>232</v>
+      </c>
       <c r="M121" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -3526,11 +4083,14 @@
       <c r="I122" t="s">
         <v>7</v>
       </c>
+      <c r="K122" t="s">
+        <v>232</v>
+      </c>
       <c r="M122" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -3546,11 +4106,14 @@
       <c r="I123" t="s">
         <v>7</v>
       </c>
+      <c r="K123" t="s">
+        <v>232</v>
+      </c>
       <c r="M123" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -3566,11 +4129,14 @@
       <c r="I124" t="s">
         <v>27</v>
       </c>
+      <c r="K124" t="s">
+        <v>232</v>
+      </c>
       <c r="M124" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -3586,11 +4152,14 @@
       <c r="I125" t="s">
         <v>27</v>
       </c>
+      <c r="K125" t="s">
+        <v>232</v>
+      </c>
       <c r="M125" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>133</v>
       </c>
@@ -3606,11 +4175,14 @@
       <c r="I126" t="s">
         <v>7</v>
       </c>
+      <c r="K126" t="s">
+        <v>232</v>
+      </c>
       <c r="M126" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -3629,11 +4201,14 @@
       <c r="I127" t="s">
         <v>7</v>
       </c>
+      <c r="K127" t="s">
+        <v>232</v>
+      </c>
       <c r="M127" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -3649,11 +4224,14 @@
       <c r="I128" t="s">
         <v>7</v>
       </c>
+      <c r="K128" t="s">
+        <v>232</v>
+      </c>
       <c r="M128" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>133</v>
       </c>
@@ -3669,11 +4247,14 @@
       <c r="I129" t="s">
         <v>7</v>
       </c>
+      <c r="K129" t="s">
+        <v>232</v>
+      </c>
       <c r="M129" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -3689,11 +4270,14 @@
       <c r="I130" t="s">
         <v>7</v>
       </c>
+      <c r="K130" t="s">
+        <v>232</v>
+      </c>
       <c r="M130" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3709,11 +4293,14 @@
       <c r="I131" t="s">
         <v>7</v>
       </c>
+      <c r="K131" t="s">
+        <v>232</v>
+      </c>
       <c r="M131" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3729,11 +4316,14 @@
       <c r="I132" t="s">
         <v>7</v>
       </c>
+      <c r="K132" t="s">
+        <v>232</v>
+      </c>
       <c r="M132" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3749,11 +4339,14 @@
       <c r="I133" t="s">
         <v>7</v>
       </c>
+      <c r="K133" t="s">
+        <v>232</v>
+      </c>
       <c r="M133" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3769,11 +4362,14 @@
       <c r="I134" t="s">
         <v>7</v>
       </c>
+      <c r="K134" t="s">
+        <v>232</v>
+      </c>
       <c r="M134" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3788,6 +4384,9 @@
       </c>
       <c r="I135" t="s">
         <v>7</v>
+      </c>
+      <c r="K135" t="s">
+        <v>232</v>
       </c>
       <c r="M135" t="s">
         <v>221</v>
@@ -3808,7 +4407,7 @@
       <selection activeCell="A2" sqref="A2:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iS3_DataManager/iS3_DataManager/Standard/Environment.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Environment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DEC6B8-CB09-4511-9992-093FAC09D2C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC55062-329C-4EB1-BE0B-8201F31B95D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$135</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -469,12 +472,6 @@
   <si>
     <t>监测信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE</t>
-  </si>
-  <si>
-    <t>关联文件</t>
   </si>
   <si>
     <t>文件集引用</t>
@@ -871,6 +868,14 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_MONI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联文件_监测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1235,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1485,7 +1490,7 @@
         <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M11" t="s">
         <v>34</v>
@@ -1508,7 +1513,7 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
@@ -1531,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M13" t="s">
         <v>36</v>
@@ -1554,7 +1559,7 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M14" t="s">
         <v>37</v>
@@ -1577,7 +1582,7 @@
         <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M15" t="s">
         <v>6</v>
@@ -1600,7 +1605,7 @@
         <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M16" t="s">
         <v>38</v>
@@ -1626,7 +1631,7 @@
         <v>39</v>
       </c>
       <c r="K17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M17" t="s">
         <v>34</v>
@@ -1649,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M18" t="s">
         <v>35</v>
@@ -1672,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s">
         <v>36</v>
@@ -1695,7 +1700,7 @@
         <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s">
         <v>37</v>
@@ -1718,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="K21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s">
         <v>6</v>
@@ -1741,7 +1746,7 @@
         <v>39</v>
       </c>
       <c r="K22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s">
         <v>38</v>
@@ -1767,7 +1772,7 @@
         <v>39</v>
       </c>
       <c r="K23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>34</v>
@@ -1790,7 +1795,7 @@
         <v>39</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s">
         <v>51</v>
@@ -1813,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s">
         <v>35</v>
@@ -1836,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s">
         <v>36</v>
@@ -1859,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s">
         <v>52</v>
@@ -1882,7 +1887,7 @@
         <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s">
         <v>53</v>
@@ -1905,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s">
         <v>54</v>
@@ -1928,7 +1933,7 @@
         <v>39</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s">
         <v>38</v>
@@ -1954,7 +1959,7 @@
         <v>39</v>
       </c>
       <c r="K31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M31" t="s">
         <v>34</v>
@@ -1977,7 +1982,7 @@
         <v>39</v>
       </c>
       <c r="K32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s">
         <v>63</v>
@@ -2000,7 +2005,7 @@
         <v>39</v>
       </c>
       <c r="K33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M33" t="s">
         <v>64</v>
@@ -2023,7 +2028,7 @@
         <v>39</v>
       </c>
       <c r="K34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s">
         <v>65</v>
@@ -2046,7 +2051,7 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M35" t="s">
         <v>35</v>
@@ -2069,7 +2074,7 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M36" t="s">
         <v>36</v>
@@ -2092,7 +2097,7 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M37" t="s">
         <v>66</v>
@@ -2115,7 +2120,7 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s">
         <v>67</v>
@@ -2138,7 +2143,7 @@
         <v>39</v>
       </c>
       <c r="K39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M39" t="s">
         <v>6</v>
@@ -2161,7 +2166,7 @@
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M40" t="s">
         <v>38</v>
@@ -2187,7 +2192,7 @@
         <v>39</v>
       </c>
       <c r="K41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M41" t="s">
         <v>34</v>
@@ -2210,7 +2215,7 @@
         <v>39</v>
       </c>
       <c r="K42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M42" t="s">
         <v>70</v>
@@ -2233,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="K43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M43" t="s">
         <v>71</v>
@@ -2256,7 +2261,7 @@
         <v>39</v>
       </c>
       <c r="K44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M44" t="s">
         <v>72</v>
@@ -2279,7 +2284,7 @@
         <v>39</v>
       </c>
       <c r="K45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s">
         <v>73</v>
@@ -2302,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="K46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s">
         <v>35</v>
@@ -2325,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="K47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M47" t="s">
         <v>36</v>
@@ -2348,7 +2353,7 @@
         <v>39</v>
       </c>
       <c r="K48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s">
         <v>6</v>
@@ -2371,7 +2376,7 @@
         <v>39</v>
       </c>
       <c r="K49" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M49" t="s">
         <v>38</v>
@@ -2397,7 +2402,7 @@
         <v>39</v>
       </c>
       <c r="K50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M50" t="s">
         <v>34</v>
@@ -2420,7 +2425,7 @@
         <v>39</v>
       </c>
       <c r="K51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M51" t="s">
         <v>51</v>
@@ -2443,7 +2448,7 @@
         <v>39</v>
       </c>
       <c r="K52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M52" t="s">
         <v>35</v>
@@ -2466,7 +2471,7 @@
         <v>39</v>
       </c>
       <c r="K53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M53" t="s">
         <v>36</v>
@@ -2489,7 +2494,7 @@
         <v>39</v>
       </c>
       <c r="K54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M54" t="s">
         <v>53</v>
@@ -2512,7 +2517,7 @@
         <v>39</v>
       </c>
       <c r="K55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s">
         <v>54</v>
@@ -2535,7 +2540,7 @@
         <v>39</v>
       </c>
       <c r="K56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M56" t="s">
         <v>38</v>
@@ -2561,7 +2566,7 @@
         <v>39</v>
       </c>
       <c r="K57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M57" t="s">
         <v>34</v>
@@ -2584,7 +2589,7 @@
         <v>39</v>
       </c>
       <c r="K58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M58" t="s">
         <v>85</v>
@@ -2607,7 +2612,7 @@
         <v>39</v>
       </c>
       <c r="K59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s">
         <v>86</v>
@@ -2630,7 +2635,7 @@
         <v>39</v>
       </c>
       <c r="K60" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M60" t="s">
         <v>87</v>
@@ -2653,7 +2658,7 @@
         <v>96</v>
       </c>
       <c r="K61" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M61" t="s">
         <v>88</v>
@@ -2676,7 +2681,7 @@
         <v>95</v>
       </c>
       <c r="K62" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M62" t="s">
         <v>89</v>
@@ -2699,7 +2704,7 @@
         <v>39</v>
       </c>
       <c r="K63" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M63" t="s">
         <v>38</v>
@@ -2725,7 +2730,7 @@
         <v>39</v>
       </c>
       <c r="K64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M64" t="s">
         <v>34</v>
@@ -2748,7 +2753,7 @@
         <v>39</v>
       </c>
       <c r="K65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M65" t="s">
         <v>99</v>
@@ -2771,7 +2776,7 @@
         <v>5</v>
       </c>
       <c r="K66" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M66" t="s">
         <v>100</v>
@@ -2794,7 +2799,7 @@
         <v>5</v>
       </c>
       <c r="K67" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M67" t="s">
         <v>101</v>
@@ -2817,7 +2822,7 @@
         <v>39</v>
       </c>
       <c r="K68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M68" t="s">
         <v>6</v>
@@ -2840,7 +2845,7 @@
         <v>39</v>
       </c>
       <c r="K69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M69" t="s">
         <v>38</v>
@@ -2866,7 +2871,7 @@
         <v>39</v>
       </c>
       <c r="K70" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M70" t="s">
         <v>34</v>
@@ -2889,7 +2894,7 @@
         <v>39</v>
       </c>
       <c r="K71" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M71" t="s">
         <v>108</v>
@@ -2912,7 +2917,7 @@
         <v>39</v>
       </c>
       <c r="K72" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M72" t="s">
         <v>109</v>
@@ -2935,7 +2940,7 @@
         <v>39</v>
       </c>
       <c r="K73" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M73" t="s">
         <v>6</v>
@@ -2958,7 +2963,7 @@
         <v>39</v>
       </c>
       <c r="K74" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M74" t="s">
         <v>38</v>
@@ -2984,7 +2989,7 @@
         <v>39</v>
       </c>
       <c r="K75" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M75" t="s">
         <v>115</v>
@@ -3007,7 +3012,7 @@
         <v>39</v>
       </c>
       <c r="K76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M76" t="s">
         <v>21</v>
@@ -3030,7 +3035,7 @@
         <v>39</v>
       </c>
       <c r="K77" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M77" t="s">
         <v>11</v>
@@ -3053,7 +3058,7 @@
         <v>118</v>
       </c>
       <c r="K78" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M78" t="s">
         <v>125</v>
@@ -3076,7 +3081,7 @@
         <v>118</v>
       </c>
       <c r="K79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M79" t="s">
         <v>126</v>
@@ -3099,7 +3104,7 @@
         <v>118</v>
       </c>
       <c r="K80" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M80" t="s">
         <v>127</v>
@@ -3122,7 +3127,7 @@
         <v>118</v>
       </c>
       <c r="K81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M81" t="s">
         <v>128</v>
@@ -3145,7 +3150,7 @@
         <v>118</v>
       </c>
       <c r="K82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M82" t="s">
         <v>129</v>
@@ -3168,7 +3173,7 @@
         <v>118</v>
       </c>
       <c r="K83" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M83" t="s">
         <v>130</v>
@@ -3191,7 +3196,7 @@
         <v>39</v>
       </c>
       <c r="K84" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M84" t="s">
         <v>117</v>
@@ -3205,10 +3210,10 @@
         <v>134</v>
       </c>
       <c r="D85" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="F85" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="G85" t="s">
         <v>2</v>
@@ -3220,11 +3225,11 @@
         <v>7</v>
       </c>
       <c r="K85" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -3232,10 +3237,10 @@
         <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="G86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
@@ -3244,10 +3249,10 @@
         <v>7</v>
       </c>
       <c r="K86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M86" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -3255,10 +3260,10 @@
         <v>133</v>
       </c>
       <c r="D87" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="G87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -3267,11 +3272,11 @@
         <v>7</v>
       </c>
       <c r="K87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -3279,10 +3284,10 @@
         <v>133</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="G88" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -3291,11 +3296,11 @@
         <v>7</v>
       </c>
       <c r="K88" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -3303,10 +3308,10 @@
         <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="G89" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -3315,11 +3320,11 @@
         <v>7</v>
       </c>
       <c r="K89" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -3327,10 +3332,10 @@
         <v>133</v>
       </c>
       <c r="D90" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="G90" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -3339,11 +3344,11 @@
         <v>7</v>
       </c>
       <c r="K90" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -3351,10 +3356,10 @@
         <v>133</v>
       </c>
       <c r="D91" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="G91" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3363,11 +3368,11 @@
         <v>7</v>
       </c>
       <c r="K91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -3375,10 +3380,10 @@
         <v>133</v>
       </c>
       <c r="D92" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="G92" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3387,11 +3392,11 @@
         <v>7</v>
       </c>
       <c r="K92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -3399,25 +3404,25 @@
         <v>133</v>
       </c>
       <c r="D93" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="G93" t="s">
+        <v>150</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>151</v>
+      </c>
+      <c r="K93" t="s">
+        <v>230</v>
+      </c>
+      <c r="L93" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="M93" t="s">
         <v>153</v>
-      </c>
-      <c r="K93" t="s">
-        <v>232</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M93" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -3425,13 +3430,13 @@
         <v>133</v>
       </c>
       <c r="D94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F94" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94" t="s">
         <v>156</v>
-      </c>
-      <c r="F94" t="s">
-        <v>157</v>
-      </c>
-      <c r="G94" t="s">
-        <v>158</v>
       </c>
       <c r="H94" t="b">
         <v>1</v>
@@ -3440,10 +3445,10 @@
         <v>7</v>
       </c>
       <c r="K94" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M94" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -3451,10 +3456,10 @@
         <v>133</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G95" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3463,10 +3468,10 @@
         <v>7</v>
       </c>
       <c r="K95" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -3474,10 +3479,10 @@
         <v>133</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3486,10 +3491,10 @@
         <v>7</v>
       </c>
       <c r="K96" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -3497,10 +3502,10 @@
         <v>133</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G97" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -3509,10 +3514,10 @@
         <v>7</v>
       </c>
       <c r="K97" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M97" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -3520,13 +3525,13 @@
         <v>133</v>
       </c>
       <c r="D98" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F98" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G98" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
@@ -3535,7 +3540,7 @@
         <v>7</v>
       </c>
       <c r="K98" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -3543,10 +3548,10 @@
         <v>133</v>
       </c>
       <c r="D99" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G99" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
@@ -3555,10 +3560,10 @@
         <v>7</v>
       </c>
       <c r="K99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -3566,10 +3571,10 @@
         <v>133</v>
       </c>
       <c r="D100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G100" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3578,10 +3583,10 @@
         <v>7</v>
       </c>
       <c r="K100" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M100" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -3589,10 +3594,10 @@
         <v>133</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G101" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -3601,10 +3606,10 @@
         <v>7</v>
       </c>
       <c r="K101" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -3612,10 +3617,10 @@
         <v>133</v>
       </c>
       <c r="D102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G102" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -3624,10 +3629,10 @@
         <v>7</v>
       </c>
       <c r="K102" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M102" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -3635,10 +3640,10 @@
         <v>133</v>
       </c>
       <c r="D103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G103" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -3647,7 +3652,7 @@
         <v>7</v>
       </c>
       <c r="K103" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -3655,10 +3660,10 @@
         <v>133</v>
       </c>
       <c r="D104" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G104" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -3667,13 +3672,13 @@
         <v>7</v>
       </c>
       <c r="K104" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M104" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N104" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -3681,10 +3686,10 @@
         <v>133</v>
       </c>
       <c r="D105" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -3693,7 +3698,7 @@
         <v>7</v>
       </c>
       <c r="K105" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -3701,10 +3706,10 @@
         <v>133</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G106" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -3713,7 +3718,7 @@
         <v>7</v>
       </c>
       <c r="K106" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -3721,10 +3726,10 @@
         <v>133</v>
       </c>
       <c r="D107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G107" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -3733,10 +3738,10 @@
         <v>7</v>
       </c>
       <c r="K107" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M107" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -3744,25 +3749,25 @@
         <v>133</v>
       </c>
       <c r="D108" t="s">
+        <v>176</v>
+      </c>
+      <c r="F108" t="s">
+        <v>177</v>
+      </c>
+      <c r="G108" t="s">
         <v>178</v>
       </c>
-      <c r="F108" t="s">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>7</v>
+      </c>
+      <c r="K108" t="s">
+        <v>230</v>
+      </c>
+      <c r="M108" t="s">
         <v>179</v>
-      </c>
-      <c r="G108" t="s">
-        <v>180</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-      <c r="K108" t="s">
-        <v>232</v>
-      </c>
-      <c r="M108" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -3770,10 +3775,10 @@
         <v>133</v>
       </c>
       <c r="D109" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -3782,10 +3787,10 @@
         <v>7</v>
       </c>
       <c r="K109" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M109" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -3793,10 +3798,10 @@
         <v>133</v>
       </c>
       <c r="D110" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G110" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -3805,10 +3810,10 @@
         <v>7</v>
       </c>
       <c r="K110" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M110" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -3816,7 +3821,7 @@
         <v>133</v>
       </c>
       <c r="D111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G111" t="s">
         <v>30</v>
@@ -3828,10 +3833,10 @@
         <v>7</v>
       </c>
       <c r="K111" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M111" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -3839,7 +3844,7 @@
         <v>133</v>
       </c>
       <c r="D112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -3851,10 +3856,10 @@
         <v>7</v>
       </c>
       <c r="K112" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M112" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -3862,10 +3867,10 @@
         <v>133</v>
       </c>
       <c r="D113" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G113" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -3874,10 +3879,10 @@
         <v>7</v>
       </c>
       <c r="K113" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -3885,10 +3890,10 @@
         <v>133</v>
       </c>
       <c r="D114" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G114" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -3897,10 +3902,10 @@
         <v>7</v>
       </c>
       <c r="K114" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M114" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -3908,10 +3913,10 @@
         <v>133</v>
       </c>
       <c r="D115" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G115" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -3920,10 +3925,10 @@
         <v>7</v>
       </c>
       <c r="K115" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M115" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -3931,10 +3936,10 @@
         <v>133</v>
       </c>
       <c r="D116" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G116" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -3943,10 +3948,10 @@
         <v>7</v>
       </c>
       <c r="K116" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M116" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -3954,10 +3959,10 @@
         <v>133</v>
       </c>
       <c r="D117" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G117" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -3966,10 +3971,10 @@
         <v>7</v>
       </c>
       <c r="K117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M117" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -3977,10 +3982,10 @@
         <v>133</v>
       </c>
       <c r="D118" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G118" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -3989,10 +3994,10 @@
         <v>7</v>
       </c>
       <c r="K118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M118" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -4000,13 +4005,13 @@
         <v>133</v>
       </c>
       <c r="D119" t="s">
+        <v>193</v>
+      </c>
+      <c r="F119" t="s">
+        <v>194</v>
+      </c>
+      <c r="G119" t="s">
         <v>195</v>
-      </c>
-      <c r="F119" t="s">
-        <v>196</v>
-      </c>
-      <c r="G119" t="s">
-        <v>197</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
@@ -4015,10 +4020,10 @@
         <v>7</v>
       </c>
       <c r="K119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M119" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -4026,10 +4031,10 @@
         <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G120" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -4038,10 +4043,10 @@
         <v>7</v>
       </c>
       <c r="K120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M120" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -4049,10 +4054,10 @@
         <v>133</v>
       </c>
       <c r="D121" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G121" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -4061,10 +4066,10 @@
         <v>7</v>
       </c>
       <c r="K121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M121" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -4072,10 +4077,10 @@
         <v>133</v>
       </c>
       <c r="D122" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G122" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -4084,10 +4089,10 @@
         <v>7</v>
       </c>
       <c r="K122" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -4095,10 +4100,10 @@
         <v>133</v>
       </c>
       <c r="D123" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G123" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -4107,10 +4112,10 @@
         <v>7</v>
       </c>
       <c r="K123" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M123" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -4118,10 +4123,10 @@
         <v>133</v>
       </c>
       <c r="D124" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G124" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
@@ -4130,10 +4135,10 @@
         <v>27</v>
       </c>
       <c r="K124" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M124" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -4141,10 +4146,10 @@
         <v>133</v>
       </c>
       <c r="D125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G125" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H125" t="b">
         <v>0</v>
@@ -4153,10 +4158,10 @@
         <v>27</v>
       </c>
       <c r="K125" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M125" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -4164,7 +4169,7 @@
         <v>133</v>
       </c>
       <c r="D126" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G126" t="s">
         <v>2</v>
@@ -4176,10 +4181,10 @@
         <v>7</v>
       </c>
       <c r="K126" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M126" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -4187,13 +4192,13 @@
         <v>133</v>
       </c>
       <c r="D127" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F127" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G127" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H127" t="b">
         <v>1</v>
@@ -4202,10 +4207,10 @@
         <v>7</v>
       </c>
       <c r="K127" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M127" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -4213,10 +4218,10 @@
         <v>133</v>
       </c>
       <c r="D128" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G128" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
@@ -4225,10 +4230,10 @@
         <v>7</v>
       </c>
       <c r="K128" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M128" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -4236,10 +4241,10 @@
         <v>133</v>
       </c>
       <c r="D129" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G129" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
@@ -4248,10 +4253,10 @@
         <v>7</v>
       </c>
       <c r="K129" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M129" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -4259,10 +4264,10 @@
         <v>133</v>
       </c>
       <c r="D130" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G130" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H130" t="b">
         <v>0</v>
@@ -4271,10 +4276,10 @@
         <v>7</v>
       </c>
       <c r="K130" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M130" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -4282,10 +4287,10 @@
         <v>133</v>
       </c>
       <c r="D131" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G131" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H131" t="b">
         <v>0</v>
@@ -4294,10 +4299,10 @@
         <v>7</v>
       </c>
       <c r="K131" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M131" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -4305,10 +4310,10 @@
         <v>133</v>
       </c>
       <c r="D132" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G132" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H132" t="b">
         <v>0</v>
@@ -4317,10 +4322,10 @@
         <v>7</v>
       </c>
       <c r="K132" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M132" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -4328,10 +4333,10 @@
         <v>133</v>
       </c>
       <c r="D133" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G133" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
@@ -4340,10 +4345,10 @@
         <v>7</v>
       </c>
       <c r="K133" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M133" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -4351,10 +4356,10 @@
         <v>133</v>
       </c>
       <c r="D134" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G134" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H134" t="b">
         <v>0</v>
@@ -4363,10 +4368,10 @@
         <v>7</v>
       </c>
       <c r="K134" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M134" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -4374,10 +4379,10 @@
         <v>133</v>
       </c>
       <c r="D135" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G135" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H135" t="b">
         <v>0</v>
@@ -4386,13 +4391,14 @@
         <v>7</v>
       </c>
       <c r="K135" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M135" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F135" xr:uid="{B4A7DE8E-3EA1-4526-939C-30CB4C43E2FB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/iS3_DataManager/iS3_DataManager/Standard/Environment.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Environment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC55062-329C-4EB1-BE0B-8201F31B95D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B299C4C-16D2-4F6E-AB09-2834EF9FB63E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$135</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -336,13 +336,6 @@
     <t>SWSO_CFAR</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开挖洞渣</t>
   </si>
   <si>
@@ -524,9 +517,6 @@
   </si>
   <si>
     <t>FILE_DATE</t>
-  </si>
-  <si>
-    <t>DT</t>
   </si>
   <si>
     <r>
@@ -876,6 +866,18 @@
   </si>
   <si>
     <t>关联文件_监测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93:I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1256,10 +1258,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1288,7 +1290,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1311,7 +1313,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1334,7 +1336,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1357,7 +1359,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1380,7 +1382,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1403,7 +1405,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1426,7 +1428,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1449,7 +1451,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1472,7 +1474,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1490,7 +1492,7 @@
         <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M11" t="s">
         <v>34</v>
@@ -1498,7 +1500,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -1513,7 +1515,7 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
@@ -1521,7 +1523,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -1536,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M13" t="s">
         <v>36</v>
@@ -1544,7 +1546,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -1559,7 +1561,7 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M14" t="s">
         <v>37</v>
@@ -1567,7 +1569,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -1582,7 +1584,7 @@
         <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M15" t="s">
         <v>6</v>
@@ -1590,7 +1592,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -1605,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M16" t="s">
         <v>38</v>
@@ -1613,7 +1615,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
@@ -1631,7 +1633,7 @@
         <v>39</v>
       </c>
       <c r="K17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M17" t="s">
         <v>34</v>
@@ -1639,7 +1641,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -1654,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M18" t="s">
         <v>35</v>
@@ -1662,7 +1664,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
@@ -1677,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s">
         <v>36</v>
@@ -1685,7 +1687,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
@@ -1700,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s">
         <v>37</v>
@@ -1708,7 +1710,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -1723,7 +1725,7 @@
         <v>39</v>
       </c>
       <c r="K21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s">
         <v>6</v>
@@ -1731,7 +1733,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
@@ -1746,7 +1748,7 @@
         <v>39</v>
       </c>
       <c r="K22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s">
         <v>38</v>
@@ -1754,7 +1756,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -1772,7 +1774,7 @@
         <v>39</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>34</v>
@@ -1780,7 +1782,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -1795,7 +1797,7 @@
         <v>39</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s">
         <v>51</v>
@@ -1803,7 +1805,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
@@ -1818,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s">
         <v>35</v>
@@ -1826,7 +1828,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
@@ -1841,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s">
         <v>36</v>
@@ -1849,7 +1851,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -1864,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s">
         <v>52</v>
@@ -1872,7 +1874,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -1887,7 +1889,7 @@
         <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s">
         <v>53</v>
@@ -1895,7 +1897,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -1910,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s">
         <v>54</v>
@@ -1918,7 +1920,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -1933,7 +1935,7 @@
         <v>39</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M30" t="s">
         <v>38</v>
@@ -1941,7 +1943,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
         <v>56</v>
@@ -1959,7 +1961,7 @@
         <v>39</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s">
         <v>34</v>
@@ -1967,7 +1969,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>56</v>
@@ -1982,7 +1984,7 @@
         <v>39</v>
       </c>
       <c r="K32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M32" t="s">
         <v>63</v>
@@ -1990,7 +1992,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
         <v>56</v>
@@ -2005,7 +2007,7 @@
         <v>39</v>
       </c>
       <c r="K33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s">
         <v>64</v>
@@ -2013,7 +2015,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
         <v>56</v>
@@ -2028,7 +2030,7 @@
         <v>39</v>
       </c>
       <c r="K34" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s">
         <v>65</v>
@@ -2036,7 +2038,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
         <v>56</v>
@@ -2051,7 +2053,7 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s">
         <v>35</v>
@@ -2059,7 +2061,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
         <v>56</v>
@@ -2074,7 +2076,7 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M36" t="s">
         <v>36</v>
@@ -2082,7 +2084,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
         <v>56</v>
@@ -2097,7 +2099,7 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M37" t="s">
         <v>66</v>
@@ -2105,7 +2107,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
         <v>56</v>
@@ -2120,7 +2122,7 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M38" t="s">
         <v>67</v>
@@ -2128,7 +2130,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
         <v>56</v>
@@ -2143,7 +2145,7 @@
         <v>39</v>
       </c>
       <c r="K39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M39" t="s">
         <v>6</v>
@@ -2151,7 +2153,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
@@ -2166,7 +2168,7 @@
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M40" t="s">
         <v>38</v>
@@ -2174,7 +2176,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
         <v>69</v>
@@ -2192,7 +2194,7 @@
         <v>39</v>
       </c>
       <c r="K41" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M41" t="s">
         <v>34</v>
@@ -2200,7 +2202,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
         <v>69</v>
@@ -2215,7 +2217,7 @@
         <v>39</v>
       </c>
       <c r="K42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M42" t="s">
         <v>70</v>
@@ -2223,7 +2225,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
         <v>69</v>
@@ -2238,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="K43" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M43" t="s">
         <v>71</v>
@@ -2246,7 +2248,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
         <v>69</v>
@@ -2261,7 +2263,7 @@
         <v>39</v>
       </c>
       <c r="K44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s">
         <v>72</v>
@@ -2269,7 +2271,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
         <v>69</v>
@@ -2284,7 +2286,7 @@
         <v>39</v>
       </c>
       <c r="K45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M45" t="s">
         <v>73</v>
@@ -2292,7 +2294,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
         <v>69</v>
@@ -2307,7 +2309,7 @@
         <v>5</v>
       </c>
       <c r="K46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M46" t="s">
         <v>35</v>
@@ -2315,7 +2317,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
         <v>69</v>
@@ -2330,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="K47" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M47" t="s">
         <v>36</v>
@@ -2338,7 +2340,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
         <v>69</v>
@@ -2353,7 +2355,7 @@
         <v>39</v>
       </c>
       <c r="K48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M48" t="s">
         <v>6</v>
@@ -2361,7 +2363,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
         <v>69</v>
@@ -2376,7 +2378,7 @@
         <v>39</v>
       </c>
       <c r="K49" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M49" t="s">
         <v>38</v>
@@ -2384,7 +2386,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
@@ -2402,7 +2404,7 @@
         <v>39</v>
       </c>
       <c r="K50" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M50" t="s">
         <v>34</v>
@@ -2410,7 +2412,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
         <v>83</v>
@@ -2425,7 +2427,7 @@
         <v>39</v>
       </c>
       <c r="K51" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M51" t="s">
         <v>51</v>
@@ -2433,7 +2435,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
         <v>83</v>
@@ -2448,7 +2450,7 @@
         <v>39</v>
       </c>
       <c r="K52" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M52" t="s">
         <v>35</v>
@@ -2456,7 +2458,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
         <v>83</v>
@@ -2471,7 +2473,7 @@
         <v>39</v>
       </c>
       <c r="K53" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M53" t="s">
         <v>36</v>
@@ -2479,7 +2481,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
         <v>83</v>
@@ -2494,7 +2496,7 @@
         <v>39</v>
       </c>
       <c r="K54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M54" t="s">
         <v>53</v>
@@ -2502,7 +2504,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
         <v>83</v>
@@ -2517,7 +2519,7 @@
         <v>39</v>
       </c>
       <c r="K55" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M55" t="s">
         <v>54</v>
@@ -2525,7 +2527,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s">
         <v>83</v>
@@ -2540,7 +2542,7 @@
         <v>39</v>
       </c>
       <c r="K56" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M56" t="s">
         <v>38</v>
@@ -2548,10 +2550,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F57" t="s">
         <v>84</v>
@@ -2566,7 +2568,7 @@
         <v>39</v>
       </c>
       <c r="K57" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M57" t="s">
         <v>34</v>
@@ -2574,10 +2576,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G58" t="s">
         <v>90</v>
@@ -2589,7 +2591,7 @@
         <v>39</v>
       </c>
       <c r="K58" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M58" t="s">
         <v>85</v>
@@ -2597,10 +2599,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G59" t="s">
         <v>91</v>
@@ -2612,7 +2614,7 @@
         <v>39</v>
       </c>
       <c r="K59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M59" t="s">
         <v>86</v>
@@ -2620,10 +2622,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
         <v>92</v>
@@ -2635,7 +2637,7 @@
         <v>39</v>
       </c>
       <c r="K60" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M60" t="s">
         <v>87</v>
@@ -2643,10 +2645,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G61" t="s">
         <v>93</v>
@@ -2655,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="K61" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M61" t="s">
         <v>88</v>
@@ -2666,10 +2668,10 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G62" t="s">
         <v>94</v>
@@ -2678,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="K62" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M62" t="s">
         <v>89</v>
@@ -2689,10 +2691,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s">
         <v>2</v>
@@ -2704,7 +2706,7 @@
         <v>39</v>
       </c>
       <c r="K63" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M63" t="s">
         <v>38</v>
@@ -2712,13 +2714,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G64" t="s">
         <v>0</v>
@@ -2730,7 +2732,7 @@
         <v>39</v>
       </c>
       <c r="K64" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M64" t="s">
         <v>34</v>
@@ -2738,13 +2740,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G65" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -2753,21 +2755,21 @@
         <v>39</v>
       </c>
       <c r="K65" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -2776,21 +2778,21 @@
         <v>5</v>
       </c>
       <c r="K66" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2799,18 +2801,18 @@
         <v>5</v>
       </c>
       <c r="K67" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G68" t="s">
         <v>78</v>
@@ -2822,7 +2824,7 @@
         <v>39</v>
       </c>
       <c r="K68" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M68" t="s">
         <v>6</v>
@@ -2830,10 +2832,10 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G69" t="s">
         <v>2</v>
@@ -2845,7 +2847,7 @@
         <v>39</v>
       </c>
       <c r="K69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M69" t="s">
         <v>38</v>
@@ -2853,13 +2855,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G70" t="s">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>39</v>
       </c>
       <c r="K70" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M70" t="s">
         <v>34</v>
@@ -2879,13 +2881,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -2894,41 +2896,41 @@
         <v>39</v>
       </c>
       <c r="K71" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D72" t="s">
+        <v>105</v>
+      </c>
+      <c r="G72" t="s">
+        <v>109</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>39</v>
+      </c>
+      <c r="K72" t="s">
+        <v>227</v>
+      </c>
+      <c r="M72" t="s">
         <v>107</v>
-      </c>
-      <c r="G72" t="s">
-        <v>111</v>
-      </c>
-      <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="s">
-        <v>39</v>
-      </c>
-      <c r="K72" t="s">
-        <v>230</v>
-      </c>
-      <c r="M72" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -2940,7 +2942,7 @@
         <v>39</v>
       </c>
       <c r="K73" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M73" t="s">
         <v>6</v>
@@ -2948,10 +2950,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G74" t="s">
         <v>2</v>
@@ -2963,7 +2965,7 @@
         <v>39</v>
       </c>
       <c r="K74" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M74" t="s">
         <v>38</v>
@@ -2971,36 +2973,36 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D75" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" t="s">
         <v>112</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" t="s">
+        <v>227</v>
+      </c>
+      <c r="M75" t="s">
         <v>113</v>
-      </c>
-      <c r="G75" t="s">
-        <v>114</v>
-      </c>
-      <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="s">
-        <v>39</v>
-      </c>
-      <c r="K75" t="s">
-        <v>230</v>
-      </c>
-      <c r="M75" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G76" t="s">
         <v>10</v>
@@ -3012,7 +3014,7 @@
         <v>39</v>
       </c>
       <c r="K76" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M76" t="s">
         <v>21</v>
@@ -3020,10 +3022,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G77" t="s">
         <v>4</v>
@@ -3035,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="K77" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M77" t="s">
         <v>11</v>
@@ -3043,151 +3045,151 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M78" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K79" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M80" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G81" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K81" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G82" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K82" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K83" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M83" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -3196,24 +3198,24 @@
         <v>39</v>
       </c>
       <c r="K84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G85" t="s">
         <v>2</v>
@@ -3225,22 +3227,22 @@
         <v>7</v>
       </c>
       <c r="K85" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D86" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G86" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
@@ -3249,21 +3251,21 @@
         <v>7</v>
       </c>
       <c r="K86" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M86" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G87" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -3272,22 +3274,22 @@
         <v>7</v>
       </c>
       <c r="K87" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -3296,22 +3298,22 @@
         <v>7</v>
       </c>
       <c r="K88" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G89" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -3320,22 +3322,22 @@
         <v>7</v>
       </c>
       <c r="K89" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -3344,22 +3346,22 @@
         <v>7</v>
       </c>
       <c r="K90" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3368,22 +3370,22 @@
         <v>7</v>
       </c>
       <c r="K91" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3392,51 +3394,51 @@
         <v>7</v>
       </c>
       <c r="K92" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D93" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G93" t="s">
+        <v>148</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>232</v>
+      </c>
+      <c r="K93" t="s">
+        <v>227</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M93" t="s">
         <v>150</v>
-      </c>
-      <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="s">
-        <v>151</v>
-      </c>
-      <c r="K93" t="s">
-        <v>230</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M93" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F94" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G94" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H94" t="b">
         <v>1</v>
@@ -3445,21 +3447,21 @@
         <v>7</v>
       </c>
       <c r="K94" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M94" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G95" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3468,21 +3470,21 @@
         <v>7</v>
       </c>
       <c r="K95" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M95" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3491,21 +3493,21 @@
         <v>7</v>
       </c>
       <c r="K96" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M96" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D97" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G97" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -3514,24 +3516,24 @@
         <v>7</v>
       </c>
       <c r="K97" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M97" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D98" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F98" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G98" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
@@ -3540,18 +3542,18 @@
         <v>7</v>
       </c>
       <c r="K98" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G99" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
@@ -3560,21 +3562,21 @@
         <v>7</v>
       </c>
       <c r="K99" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M99" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G100" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3583,21 +3585,21 @@
         <v>7</v>
       </c>
       <c r="K100" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M100" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D101" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G101" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -3606,21 +3608,21 @@
         <v>7</v>
       </c>
       <c r="K101" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M101" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D102" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G102" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -3629,21 +3631,21 @@
         <v>7</v>
       </c>
       <c r="K102" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M102" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D103" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G103" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -3652,18 +3654,18 @@
         <v>7</v>
       </c>
       <c r="K103" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D104" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G104" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -3672,24 +3674,24 @@
         <v>7</v>
       </c>
       <c r="K104" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M104" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N104" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D105" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G105" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -3698,18 +3700,18 @@
         <v>7</v>
       </c>
       <c r="K105" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D106" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G106" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -3718,18 +3720,18 @@
         <v>7</v>
       </c>
       <c r="K106" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G107" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -3738,47 +3740,47 @@
         <v>7</v>
       </c>
       <c r="K107" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M107" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D108" t="s">
+        <v>173</v>
+      </c>
+      <c r="F108" t="s">
+        <v>174</v>
+      </c>
+      <c r="G108" t="s">
+        <v>175</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>7</v>
+      </c>
+      <c r="K108" t="s">
+        <v>227</v>
+      </c>
+      <c r="M108" t="s">
         <v>176</v>
-      </c>
-      <c r="F108" t="s">
-        <v>177</v>
-      </c>
-      <c r="G108" t="s">
-        <v>178</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" t="s">
-        <v>7</v>
-      </c>
-      <c r="K108" t="s">
-        <v>230</v>
-      </c>
-      <c r="M108" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D109" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G109" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -3787,21 +3789,21 @@
         <v>7</v>
       </c>
       <c r="K109" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M109" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D110" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G110" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -3810,18 +3812,18 @@
         <v>7</v>
       </c>
       <c r="K110" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M110" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D111" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G111" t="s">
         <v>30</v>
@@ -3833,18 +3835,18 @@
         <v>7</v>
       </c>
       <c r="K111" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M111" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -3856,21 +3858,21 @@
         <v>7</v>
       </c>
       <c r="K112" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M112" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D113" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G113" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -3879,21 +3881,21 @@
         <v>7</v>
       </c>
       <c r="K113" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M113" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D114" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G114" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -3902,21 +3904,21 @@
         <v>7</v>
       </c>
       <c r="K114" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M114" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D115" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G115" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -3925,21 +3927,21 @@
         <v>7</v>
       </c>
       <c r="K115" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M115" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D116" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G116" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -3948,21 +3950,21 @@
         <v>7</v>
       </c>
       <c r="K116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M116" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D117" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G117" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -3971,21 +3973,21 @@
         <v>7</v>
       </c>
       <c r="K117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M117" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D118" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G118" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -3994,24 +3996,24 @@
         <v>7</v>
       </c>
       <c r="K118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M118" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D119" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F119" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G119" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
@@ -4020,21 +4022,21 @@
         <v>7</v>
       </c>
       <c r="K119" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M119" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D120" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G120" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -4043,21 +4045,21 @@
         <v>7</v>
       </c>
       <c r="K120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M120" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G121" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -4066,21 +4068,21 @@
         <v>7</v>
       </c>
       <c r="K121" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M121" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D122" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G122" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -4089,21 +4091,21 @@
         <v>7</v>
       </c>
       <c r="K122" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M122" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D123" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G123" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -4112,64 +4114,64 @@
         <v>7</v>
       </c>
       <c r="K123" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M123" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D124" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G124" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="K124" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M124" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D125" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G125" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H125" t="b">
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="K125" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M125" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D126" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G126" t="s">
         <v>2</v>
@@ -4181,24 +4183,24 @@
         <v>7</v>
       </c>
       <c r="K126" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M126" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D127" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F127" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G127" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H127" t="b">
         <v>1</v>
@@ -4207,22 +4209,22 @@
         <v>7</v>
       </c>
       <c r="K127" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M127" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D128" t="s">
+        <v>204</v>
+      </c>
+      <c r="G128" t="s">
         <v>207</v>
       </c>
-      <c r="G128" t="s">
-        <v>210</v>
-      </c>
       <c r="H128" t="b">
         <v>0</v>
       </c>
@@ -4230,21 +4232,21 @@
         <v>7</v>
       </c>
       <c r="K128" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M128" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D129" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G129" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
@@ -4253,21 +4255,21 @@
         <v>7</v>
       </c>
       <c r="K129" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M129" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D130" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G130" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H130" t="b">
         <v>0</v>
@@ -4276,21 +4278,21 @@
         <v>7</v>
       </c>
       <c r="K130" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M130" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D131" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G131" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H131" t="b">
         <v>0</v>
@@ -4299,21 +4301,21 @@
         <v>7</v>
       </c>
       <c r="K131" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M131" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G132" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H132" t="b">
         <v>0</v>
@@ -4322,21 +4324,21 @@
         <v>7</v>
       </c>
       <c r="K132" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M132" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D133" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G133" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
@@ -4345,21 +4347,21 @@
         <v>7</v>
       </c>
       <c r="K133" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M133" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D134" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G134" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H134" t="b">
         <v>0</v>
@@ -4368,21 +4370,21 @@
         <v>7</v>
       </c>
       <c r="K134" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M134" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D135" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G135" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H135" t="b">
         <v>0</v>
@@ -4391,14 +4393,14 @@
         <v>7</v>
       </c>
       <c r="K135" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M135" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F135" xr:uid="{B4A7DE8E-3EA1-4526-939C-30CB4C43E2FB}"/>
+  <autoFilter ref="I1:I135" xr:uid="{23A5DE9C-53FD-4980-B077-DFFFB07697D5}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
